--- a/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_182.xlsx
+++ b/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_182.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,14 +16,89 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
   <si>
     <t>STR</t>
   </si>
   <si>
+    <t>reviewer_ID</t>
+  </si>
+  <si>
+    <t>reviewer_name</t>
+  </si>
+  <si>
+    <t>Review_ID</t>
+  </si>
+  <si>
+    <t>Date_of_scraping</t>
+  </si>
+  <si>
+    <t>ReviewURL</t>
+  </si>
+  <si>
+    <t>Tripadvisor_gcode</t>
+  </si>
+  <si>
+    <t>Tripadvisor_dcode</t>
+  </si>
+  <si>
+    <t>Tripadvisor_rcode</t>
+  </si>
+  <si>
+    <t>review_date</t>
+  </si>
+  <si>
+    <t>review_title</t>
+  </si>
+  <si>
+    <t>review_content</t>
+  </si>
+  <si>
+    <t>review_rating</t>
+  </si>
+  <si>
+    <t>trip_month</t>
+  </si>
+  <si>
+    <t>trip_purpose</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>rooms</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Cleanliness</t>
+  </si>
+  <si>
+    <t>Sleep Quality</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>Picture(yes=1)</t>
+  </si>
+  <si>
+    <t>respondent</t>
+  </si>
+  <si>
+    <t>response_date</t>
+  </si>
+  <si>
+    <t>response_text</t>
+  </si>
+  <si>
     <t>Hotel_Name</t>
   </si>
   <si>
+    <t>State</t>
+  </si>
+  <si>
     <t>City</t>
   </si>
   <si>
@@ -48,6 +123,9 @@
     <t>Springhill Suites New Orleans Downtown Convention Center</t>
   </si>
   <si>
+    <t>Louisiana</t>
+  </si>
+  <si>
     <t>New Orleans</t>
   </si>
   <si>
@@ -64,78 +142,6 @@
   </si>
   <si>
     <t>604</t>
-  </si>
-  <si>
-    <t>reviewer_ID</t>
-  </si>
-  <si>
-    <t>reviewer_name</t>
-  </si>
-  <si>
-    <t>Review_ID</t>
-  </si>
-  <si>
-    <t>Date_of_scraping</t>
-  </si>
-  <si>
-    <t>ReviewURL</t>
-  </si>
-  <si>
-    <t>Tripadvisor_gcode</t>
-  </si>
-  <si>
-    <t>Tripadvisor_dcode</t>
-  </si>
-  <si>
-    <t>Tripadvisor_rcode</t>
-  </si>
-  <si>
-    <t>review_date</t>
-  </si>
-  <si>
-    <t>review_title</t>
-  </si>
-  <si>
-    <t>review_content</t>
-  </si>
-  <si>
-    <t>review_rating</t>
-  </si>
-  <si>
-    <t>trip_month</t>
-  </si>
-  <si>
-    <t>trip_purpose</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>rooms</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Cleanliness</t>
-  </si>
-  <si>
-    <t>Sleep Quality</t>
-  </si>
-  <si>
-    <t>Service</t>
-  </si>
-  <si>
-    <t>Picture(yes=1)</t>
-  </si>
-  <si>
-    <t>respondent</t>
-  </si>
-  <si>
-    <t>response_date</t>
-  </si>
-  <si>
-    <t>response_text</t>
   </si>
 </sst>
 </file>
@@ -506,34 +512,53 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>42557</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="n">
-        <v>70130</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="I2" t="s">
+      <c r="P1" t="s">
         <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -558,76 +583,63 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="G1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="I1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="J1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>31</v>
-      </c>
-      <c r="R1" t="s">
-        <v>32</v>
-      </c>
-      <c r="S1" t="s">
         <v>33</v>
       </c>
-      <c r="T1" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>42557</v>
+      </c>
+      <c r="B2" t="s">
         <v>34</v>
       </c>
-      <c r="U1" t="s">
+      <c r="C2" t="s">
         <v>35</v>
       </c>
-      <c r="V1" t="s">
+      <c r="D2" t="s">
         <v>36</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E2" t="n">
+        <v>70130</v>
+      </c>
+      <c r="F2" t="s">
         <v>37</v>
       </c>
-      <c r="X1" t="s">
+      <c r="G2" t="s">
         <v>38</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="H2" t="s">
         <v>39</v>
+      </c>
+      <c r="I2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_182.xlsx
+++ b/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_182.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="review_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="hotel_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="394">
   <si>
     <t>STR</t>
   </si>
@@ -91,6 +91,1076 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>10/19/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223130-r624956107-SpringHill_Suites_New_Orleans_Downtown_Convention_Center-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>60864</t>
+  </si>
+  <si>
+    <t>223130</t>
+  </si>
+  <si>
+    <t>624956107</t>
+  </si>
+  <si>
+    <t>10/15/2018</t>
+  </si>
+  <si>
+    <t>Housekeeping is terrible</t>
+  </si>
+  <si>
+    <t>We stayed Oct 8 - 14 2018 room 120, and the only bright spot was Richard, the maintenance man on afternoon shift. (Lance and the gentleman that fixed out shower door on Tuesday afternoon were also helpful) Our room did not get washcloths - or if we did there was one for the room and the two of us. It was not cleaned at all one day. We came back to room one day to find door was left open after cleaning. Complaints to front desk on days did nothing. Even the request for some washcloths. Afternoon shift was at least responsive. The last night, the people in the 2 rooms to the side of us were up very loudly partying until 2:30 am. We had to get up at 4 am. We called the desk who suggested the noise was from the bar across the street. It was not as we could hear that music at a reasonable level. I got 45 minutes sleep that night. Although the location was great, until they do something drastic about housekeeping and the day shift front responsiveness (there was one woman in particular I am referring to) I would NEVER go back to this hotel. And since I read about the housekeeping issue on one other very recent review I don't believe the hotel did anything with their "teachable moment".MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Edison C, Assistant General Manager at SpringHill Suites New Orleans Downtown/Convention Center, responded to this reviewResponded 3 days ago</t>
+  </si>
+  <si>
+    <t>Responded 3 days ago</t>
+  </si>
+  <si>
+    <t>We stayed Oct 8 - 14 2018 room 120, and the only bright spot was Richard, the maintenance man on afternoon shift. (Lance and the gentleman that fixed out shower door on Tuesday afternoon were also helpful) Our room did not get washcloths - or if we did there was one for the room and the two of us. It was not cleaned at all one day. We came back to room one day to find door was left open after cleaning. Complaints to front desk on days did nothing. Even the request for some washcloths. Afternoon shift was at least responsive. The last night, the people in the 2 rooms to the side of us were up very loudly partying until 2:30 am. We had to get up at 4 am. We called the desk who suggested the noise was from the bar across the street. It was not as we could hear that music at a reasonable level. I got 45 minutes sleep that night. Although the location was great, until they do something drastic about housekeeping and the day shift front responsiveness (there was one woman in particular I am referring to) I would NEVER go back to this hotel. And since I read about the housekeeping issue on one other very recent review I don't believe the hotel did anything with their "teachable moment".More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223130-r624341835-SpringHill_Suites_New_Orleans_Downtown_Convention_Center-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>624341835</t>
+  </si>
+  <si>
+    <t>10/12/2018</t>
+  </si>
+  <si>
+    <t>Great hotel; great location</t>
+  </si>
+  <si>
+    <t>Short walking distance to the Riverwalk, Canal Street Mall and Convention Center.  Comfortable beds, spacious suites and good facilities make this a great choice for your next stay in the area.  The breakfast that's included with your stay is the best we've ever had with plenty of seating room, delicious food and friendly staff who keep things stocked nicely and tables clean.  They serve fresh scrambled eggs every morning (none of those rubbery powdered eggs!) along with fresh sausage or ham, strawberries to top off their light and fluffy waffles (best ever!) as well as other toppings like nuts and whipped cream.  They also have the usual variety of breads, cereals, yogurt and oatmeal and the like.  We would definitely recommend it and would come back again!MoreShow less</t>
+  </si>
+  <si>
+    <t>Short walking distance to the Riverwalk, Canal Street Mall and Convention Center.  Comfortable beds, spacious suites and good facilities make this a great choice for your next stay in the area.  The breakfast that's included with your stay is the best we've ever had with plenty of seating room, delicious food and friendly staff who keep things stocked nicely and tables clean.  They serve fresh scrambled eggs every morning (none of those rubbery powdered eggs!) along with fresh sausage or ham, strawberries to top off their light and fluffy waffles (best ever!) as well as other toppings like nuts and whipped cream.  They also have the usual variety of breads, cereals, yogurt and oatmeal and the like.  We would definitely recommend it and would come back again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223130-r620789164-SpringHill_Suites_New_Orleans_Downtown_Convention_Center-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>620789164</t>
+  </si>
+  <si>
+    <t>09/30/2018</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>Solid hotel. Breakfast included and great neighborhood. Location is key. Quiet room, comfy bed, very clean space. Staff was helpful. Water is hard, as it is everywhere in NOLA. Would happily come back.</t>
+  </si>
+  <si>
+    <t>September 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223130-r620787316-SpringHill_Suites_New_Orleans_Downtown_Convention_Center-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>620787316</t>
+  </si>
+  <si>
+    <t>Convenient and Clean Stay for a Work Trip!</t>
+  </si>
+  <si>
+    <t>I stayed at the SpringHill Suites while I attended a conference at the New Orleans Convention Center. The location was very convenient and walkable to most places (I used the trolley/streetcar to get to Canal and Bourbon Streets). The room was very spacious with awesome amenities (e.g., two smart TVs), the WiFi was great, and the housekeeping was great. The front desk staff were a bit standoffish but it wasn't an issue.  The only problem I had was related to the hotel's location and address/GPS navigation - the hotel is located on St. Joseph St. between Commerce and S. Pierre Streets, but the GPS takes Uber/Lyft drivers and food delivery drivers to a different location. As I am not from New Orleans, it was slightly difficult to figure out at first, but it was not a significant problem. Overall, such a nice hotel!!MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed at the SpringHill Suites while I attended a conference at the New Orleans Convention Center. The location was very convenient and walkable to most places (I used the trolley/streetcar to get to Canal and Bourbon Streets). The room was very spacious with awesome amenities (e.g., two smart TVs), the WiFi was great, and the housekeeping was great. The front desk staff were a bit standoffish but it wasn't an issue.  The only problem I had was related to the hotel's location and address/GPS navigation - the hotel is located on St. Joseph St. between Commerce and S. Pierre Streets, but the GPS takes Uber/Lyft drivers and food delivery drivers to a different location. As I am not from New Orleans, it was slightly difficult to figure out at first, but it was not a significant problem. Overall, such a nice hotel!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223130-r619898758-SpringHill_Suites_New_Orleans_Downtown_Convention_Center-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>619898758</t>
+  </si>
+  <si>
+    <t>09/26/2018</t>
+  </si>
+  <si>
+    <t>Great near convention center and Harrah's casino.</t>
+  </si>
+  <si>
+    <t>This hotel had very nice rooms very easy check in and coffee 24 × 7 .In the a.m. there was great breakfast with the friendliest nicest staff.The big problem was with oatmeal and juice...never did anyone ever read the directions!Oatmeal was either 96% oatmeal with 4% water..sitting there all morning dry and appetizing only to goats.The Orange juice ..and I stayed 2 weeks ..was often watery.The maid service was kind and helpful.The morning breakfast also had A BIG MESS OF THOSE LIQUID EGGS  out of a carton..horrible..many morning I got my juice and toast and you hurt and then went down the street for a real excellent breakfast.The best staff the worst breakfast ever.Sorry buddies.Why not read the directions to make appetizing eggs and oatmeal and orange juice that is not watery.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t>This hotel had very nice rooms very easy check in and coffee 24 × 7 .In the a.m. there was great breakfast with the friendliest nicest staff.The big problem was with oatmeal and juice...never did anyone ever read the directions!Oatmeal was either 96% oatmeal with 4% water..sitting there all morning dry and appetizing only to goats.The Orange juice ..and I stayed 2 weeks ..was often watery.The maid service was kind and helpful.The morning breakfast also had A BIG MESS OF THOSE LIQUID EGGS  out of a carton..horrible..many morning I got my juice and toast and you hurt and then went down the street for a real excellent breakfast.The best staff the worst breakfast ever.Sorry buddies.Why not read the directions to make appetizing eggs and oatmeal and orange juice that is not watery.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223130-r616241618-SpringHill_Suites_New_Orleans_Downtown_Convention_Center-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>616241618</t>
+  </si>
+  <si>
+    <t>09/13/2018</t>
+  </si>
+  <si>
+    <t>BEST PLACE TO STAY IN NOLA!!</t>
+  </si>
+  <si>
+    <t>Stayed here for six days with some friends.  The entire Hotel Staff was absolutely awesome, professional and very courteous.  My friends daughter is in a wheelchair and has a service dog to assist her.  The Hotel Front Desk/Valet/Breakfast Ladies/Housecleaning Staff made all of us feel very welcome and quickly assisted with any special requests .  In addition this Hotel is centrally located and within short walking distance to shops, restaurants and entertainment.  Definitely will return here....</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223130-r614858382-SpringHill_Suites_New_Orleans_Downtown_Convention_Center-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>614858382</t>
+  </si>
+  <si>
+    <t>09/08/2018</t>
+  </si>
+  <si>
+    <t>Great hotel. Housekeeping lacking</t>
+  </si>
+  <si>
+    <t>The hotel is a great facility. The staff is very friendly and helpful. We held our family reunion here July 2018. Breakfast was tasty and plentiful. The only downside....housekeeping missed cleaning some rooms. In the 3 nights we stayed, they said they didn't have lotion. On one occasion,  housekeeping came at 5:00pm. We told them it was not a good time because we were getting ready for our banquet. The housekeeper said they were ready to go home. So we stopped getting ready and ask them to simply clean the bathroom. We were also told they were short on staff. The hotel gave us extra points for.our troubles. Everything else was great!MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>The hotel is a great facility. The staff is very friendly and helpful. We held our family reunion here July 2018. Breakfast was tasty and plentiful. The only downside....housekeeping missed cleaning some rooms. In the 3 nights we stayed, they said they didn't have lotion. On one occasion,  housekeeping came at 5:00pm. We told them it was not a good time because we were getting ready for our banquet. The housekeeper said they were ready to go home. So we stopped getting ready and ask them to simply clean the bathroom. We were also told they were short on staff. The hotel gave us extra points for.our troubles. Everything else was great!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223130-r614663747-SpringHill_Suites_New_Orleans_Downtown_Convention_Center-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>614663747</t>
+  </si>
+  <si>
+    <t>09/07/2018</t>
+  </si>
+  <si>
+    <t>Great location.</t>
+  </si>
+  <si>
+    <t>I enjoyed my stay here. The staff was nice and friendly, the rooms were clean and comfortable. The hotel offered a nice breakfast buffet, pool and fitness center. The hotel was in walking distance from a variety restaurants, the Outlet Collection Riverwalk, the Port of New Orleans and a few musuems.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223130-r614356731-SpringHill_Suites_New_Orleans_Downtown_Convention_Center-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>614356731</t>
+  </si>
+  <si>
+    <t>09/06/2018</t>
+  </si>
+  <si>
+    <t>Springhill suites</t>
+  </si>
+  <si>
+    <t>Visited new orleans from the UK and stayed in the springhill suites. Fabulous hotel and staff were amazing especially stephen on the front desk,nothing was too much trouble for him and went out his way to ensure we had a pleasant stay. Will definetly stay here again .highly recommend this hotel to stay if visiting new orleans. Thank you for a wonderful time.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223130-r611670907-SpringHill_Suites_New_Orleans_Downtown_Convention_Center-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>611670907</t>
+  </si>
+  <si>
+    <t>08/28/2018</t>
+  </si>
+  <si>
+    <t>COMFORTABLE STAY FOR SMALL PRICE</t>
+  </si>
+  <si>
+    <t>Great location being a block (Building) away from convention center.   A bonus was seeing Mardi Gras while on business trip in 2017.  It was a comfortable stay for a fair price.   Service was a bonus too, extra help on hand because of Mardi Gras.   Also had a much better appreciation for New Orleans in march of 2017 (again for Business) after taking a city tour, it was eye opening.   The food is challenging for me, but made the most of it.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223130-r608396239-SpringHill_Suites_New_Orleans_Downtown_Convention_Center-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>608396239</t>
+  </si>
+  <si>
+    <t>08/20/2018</t>
+  </si>
+  <si>
+    <t>Nice hotel, decent price.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spacious and clean rooms with a decent breakfast buffet. The staff were friendly and helpful.. it’s in a nice location. You can walk pretty much everywhere (on average about a 20 minutes walk) otherwise you can call an Uber (average price about $8). I wouldn’t advise walking at night as it’s a bit quiet. </t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223130-r606551684-SpringHill_Suites_New_Orleans_Downtown_Convention_Center-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>606551684</t>
+  </si>
+  <si>
+    <t>08/14/2018</t>
+  </si>
+  <si>
+    <t>Never Again</t>
+  </si>
+  <si>
+    <t>One of the worst hotel experience I have ever had. I stayed here with friends for 5 days and 4 nights, and our room was only cleaned ONCE. Throughout our stay, we had to call or go down to get toilet paper and towels at the front desk because the rooms were never cleaned. We even spoke to the maids on duty everyday before we left to let them now we were gone for the day and they can come clean the room. Everyday we would come back the room will still be the same. We had to get a big garbage bag for our room because the trash bins were too full. We only went to the pool once because the pool had way too much chlorine (the water was so blue and powdery that we were not able to see the bottom). This was my first and last time staying at SpringHill Suite; I was not impressed. I will not be staying here again the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>Lance E, Front Office Manager at SpringHill Suites New Orleans Downtown/Convention Center, responded to this reviewResponded August 15, 2018</t>
+  </si>
+  <si>
+    <t>Responded August 15, 2018</t>
+  </si>
+  <si>
+    <t>One of the worst hotel experience I have ever had. I stayed here with friends for 5 days and 4 nights, and our room was only cleaned ONCE. Throughout our stay, we had to call or go down to get toilet paper and towels at the front desk because the rooms were never cleaned. We even spoke to the maids on duty everyday before we left to let them now we were gone for the day and they can come clean the room. Everyday we would come back the room will still be the same. We had to get a big garbage bag for our room because the trash bins were too full. We only went to the pool once because the pool had way too much chlorine (the water was so blue and powdery that we were not able to see the bottom). This was my first and last time staying at SpringHill Suite; I was not impressed. I will not be staying here again the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223130-r603197939-SpringHill_Suites_New_Orleans_Downtown_Convention_Center-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>603197939</t>
+  </si>
+  <si>
+    <t>08/06/2018</t>
+  </si>
+  <si>
+    <t>Excellent Hotel Choice for Family Reunion</t>
+  </si>
+  <si>
+    <t>5 Stars all the way.  Rooms are big and modern.  Breakfast was decent, and service was over the top.  Hotel checked all the boxes.  Location is good for getting to the mall, Harrahs, and Convention Center.  A bit of a walk to Bourbon Street but not too bad.  Staff was accommodating and flexible for our family reunion.  Use of the banquet room was nice and affordable.  Valet parking was pricey, but that just comes with staying in that part of New Orleans.  Uber and Lyft were good cheap alternatives to get where you are going.  Overall, hotel was nice and clean, and we will definitely stay again!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223130-r602933227-SpringHill_Suites_New_Orleans_Downtown_Convention_Center-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>602933227</t>
+  </si>
+  <si>
+    <t>08/05/2018</t>
+  </si>
+  <si>
+    <t>Quick stay in New Orleans, clean but not a good layout</t>
+  </si>
+  <si>
+    <t>We stayed here for just 1 night.  It was a nice location to get to all the sites.  Beds were comfortable.  We picked this for a group of 5.  I would not stay here again with more than 4 people.  The sofa bed was terrible.  Not comfortable at all unless you have a very small child using it.  There is no division between the sitting area and bedroom, yet 2 TVs. Very poor layout. Would definitely choose a residence Inn or Embassy Suites if looking for space for 5 people over this layout for any stay over 1 day.  Parking was $35 which was higher than other hotels.  Breakfast had a nice selection.  This hotel did not seem to use or be connected with the Marriott app like most as never received notification for check in and check out and didn’t have requested towels, pillows in room as requested through app.  Minor inconvenience but is part of the point of having the app.MoreShow less</t>
+  </si>
+  <si>
+    <t>Samantha B, Front Office Manager at SpringHill Suites New Orleans Downtown/Convention Center, responded to this reviewResponded August 7, 2018</t>
+  </si>
+  <si>
+    <t>Responded August 7, 2018</t>
+  </si>
+  <si>
+    <t>We stayed here for just 1 night.  It was a nice location to get to all the sites.  Beds were comfortable.  We picked this for a group of 5.  I would not stay here again with more than 4 people.  The sofa bed was terrible.  Not comfortable at all unless you have a very small child using it.  There is no division between the sitting area and bedroom, yet 2 TVs. Very poor layout. Would definitely choose a residence Inn or Embassy Suites if looking for space for 5 people over this layout for any stay over 1 day.  Parking was $35 which was higher than other hotels.  Breakfast had a nice selection.  This hotel did not seem to use or be connected with the Marriott app like most as never received notification for check in and check out and didn’t have requested towels, pillows in room as requested through app.  Minor inconvenience but is part of the point of having the app.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223130-r601838708-SpringHill_Suites_New_Orleans_Downtown_Convention_Center-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>601838708</t>
+  </si>
+  <si>
+    <t>08/01/2018</t>
+  </si>
+  <si>
+    <t>Some good, some not so good</t>
+  </si>
+  <si>
+    <t>The goods: very friendly staff, good location, rooms clean.The not so goods: $35 per night for parking, beds hard, pool is tiny for the size of the hotel, breakfast is crazy packed (space to small for number of people), breakfast is always the same (other SpringHills have different variety of eggs/meat daily, this one only served scrambled with burnt turkey sausage).</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223130-r601598945-SpringHill_Suites_New_Orleans_Downtown_Convention_Center-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>601598945</t>
+  </si>
+  <si>
+    <t>07/31/2018</t>
+  </si>
+  <si>
+    <t>Close to Convention Center</t>
+  </si>
+  <si>
+    <t>We were in New Orleans for a basketball tournament. I enjoyed the quick walk to the Convention Center and didn't have to worry about parking since the hotel provided parking. The parking cost is $39 per day. The valet staff is exceptionally nice and provide quick service. Special shout out to Deric (valet service) because he opened my door when bringing me my car and I was a passenger. A few amenities in the hotel did not work, which was concerning. Several access doors to the pool area would not open and the lobby bathrooms needed attention. Breakfast was good and convenient for our team. Overall, the hotel was pleasant and I would stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>We were in New Orleans for a basketball tournament. I enjoyed the quick walk to the Convention Center and didn't have to worry about parking since the hotel provided parking. The parking cost is $39 per day. The valet staff is exceptionally nice and provide quick service. Special shout out to Deric (valet service) because he opened my door when bringing me my car and I was a passenger. A few amenities in the hotel did not work, which was concerning. Several access doors to the pool area would not open and the lobby bathrooms needed attention. Breakfast was good and convenient for our team. Overall, the hotel was pleasant and I would stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223130-r600213157-SpringHill_Suites_New_Orleans_Downtown_Convention_Center-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>600213157</t>
+  </si>
+  <si>
+    <t>07/27/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good location, nicely updated </t>
+  </si>
+  <si>
+    <t>We visited for Basketball on the Bayou at the convention center. Perfect location, only two blocks from the events. I was able to check in early at 10am but the only room available was on the first floor with a window to the street.  I was concerned about noise but it was very minimal.  Definitely couldn't keep the curtains open for light because passers by can see in.  Free continental breakfast was decent and service was good.  Only negative was that we lost power for about an hour.  It wasn't the hotel's fault but an inconvenience for sure with no compensation.  My iron was crappy and I called for a replacement but they never brought it. They also don't offer shuttle service to the airport.  Otherwise a nice hotel.  MoreShow less</t>
+  </si>
+  <si>
+    <t>We visited for Basketball on the Bayou at the convention center. Perfect location, only two blocks from the events. I was able to check in early at 10am but the only room available was on the first floor with a window to the street.  I was concerned about noise but it was very minimal.  Definitely couldn't keep the curtains open for light because passers by can see in.  Free continental breakfast was decent and service was good.  Only negative was that we lost power for about an hour.  It wasn't the hotel's fault but an inconvenience for sure with no compensation.  My iron was crappy and I called for a replacement but they never brought it. They also don't offer shuttle service to the airport.  Otherwise a nice hotel.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223130-r598691656-SpringHill_Suites_New_Orleans_Downtown_Convention_Center-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>598691656</t>
+  </si>
+  <si>
+    <t>07/22/2018</t>
+  </si>
+  <si>
+    <t>Chic Hotel 1 mile from Bourbon 🥃 Street</t>
+  </si>
+  <si>
+    <t>Springhill Suites Downtown Convention Center is a ‘Chic Hidden Gem’ 5 .I truly enjoyed my 5 day stay here May 10-15, 2018. The hotel is very trendy it has a tranquil vibe to it. Our room was the best &amp; extremely clean. The beds were super comfy/breakfast was also really good. Ladies you’ll have a love/hate relationship with the bathroom since the lighting in there shows everything I mean everything on your face lol. You’ll definitely know if a pimple shows up or like makeup glitches. Plenty of hot water/water pressure with an adjustable nozzle for showering/tub. There are (2) 35-42 inch screen tvs &amp; the couch is really firm . Loved the swimming pool which is quaint and nice. I loved the fact they had ice water with cut cucumbers or lemons available 24 hrs in 2 locations right when you walk in &amp; the dining area which definitely comes in handy while drinking and walking in the heat.  The hotel is 1 mile away from Bourbon Street so basically a 20 min walk. I know that might sound a little harsh but it’s a breeze... trust me I’m not athletic in anyway lol. The walking is so fun even in the heat which I particularly don’t enjoy  I like 75-80 degrees that’s just the right kind of weather for me! I’m from Chicago.Which brings me back to walking in Nola the distance goes so quickly while laughing...Springhill Suites Downtown Convention Center is a ‘Chic Hidden Gem’ 5 .I truly enjoyed my 5 day stay here May 10-15, 2018. The hotel is very trendy it has a tranquil vibe to it. Our room was the best &amp; extremely clean. The beds were super comfy/breakfast was also really good. Ladies you’ll have a love/hate relationship with the bathroom since the lighting in there shows everything I mean everything on your face lol. You’ll definitely know if a pimple shows up or like makeup glitches. Plenty of hot water/water pressure with an adjustable nozzle for showering/tub. There are (2) 35-42 inch screen tvs &amp; the couch is really firm . Loved the swimming pool which is quaint and nice. I loved the fact they had ice water with cut cucumbers or lemons available 24 hrs in 2 locations right when you walk in &amp; the dining area which definitely comes in handy while drinking and walking in the heat.  The hotel is 1 mile away from Bourbon Street so basically a 20 min walk. I know that might sound a little harsh but it’s a breeze... trust me I’m not athletic in anyway lol. The walking is so fun even in the heat which I particularly don’t enjoy  I like 75-80 degrees that’s just the right kind of weather for me! I’m from Chicago.Which brings me back to walking in Nola the distance goes so quickly while laughing and drinking with friends or meeting new people. I like that there are restaurants/bars within 1/2-1 block away like Howling Wolf, Lucy’s &amp; Emeril. I can’t really give a review on their food/drinks. I’ve only been at the Howling Wolf to listen to Hot 8 Brass band they were excellent for Mother’s Day. This is my 2nd time visiting Nola so now I’m more familiar with the area. We took a taxi going places like the Omni Hotel for a 3 course meal with unlimited mimosas brunch on Mother’s Day which was A+ as well. I noticed the surroundings as the taxi took us places for the first time but we always walked back since it was so easy especially when you make your trips back to Bourbon St...drink, dance, laugh &amp; find a bench on Canal to relax enjoy the weather &amp; the view, then make our way back to the hotel where you totally enjoy the Scenery which have boutiques, eclectic stores, etc &amp; it’s not a creepy walk back to the hotel. My bestie and I are totally nocturnal our day really doesn’t start Until 9PM &amp; I’m stretching that! most of the times we don’t leave out until 11/midnight so that speaks for itself lol. FYI we took a taxi right in front of the hotel at 1amto eat. It was definitely a challenge this time around &amp; I’m sorta proud of us since we made reservations for outings like brunch, Natchez Steamboat and Mister Gregory’s Shrimp Boil which were all at the range of 11am-6pm wooooh that was hard lol. I promise each of these locations we walked back with no issues. I love Nola and our room. It’s the best!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>Springhill Suites Downtown Convention Center is a ‘Chic Hidden Gem’ 5 .I truly enjoyed my 5 day stay here May 10-15, 2018. The hotel is very trendy it has a tranquil vibe to it. Our room was the best &amp; extremely clean. The beds were super comfy/breakfast was also really good. Ladies you’ll have a love/hate relationship with the bathroom since the lighting in there shows everything I mean everything on your face lol. You’ll definitely know if a pimple shows up or like makeup glitches. Plenty of hot water/water pressure with an adjustable nozzle for showering/tub. There are (2) 35-42 inch screen tvs &amp; the couch is really firm . Loved the swimming pool which is quaint and nice. I loved the fact they had ice water with cut cucumbers or lemons available 24 hrs in 2 locations right when you walk in &amp; the dining area which definitely comes in handy while drinking and walking in the heat.  The hotel is 1 mile away from Bourbon Street so basically a 20 min walk. I know that might sound a little harsh but it’s a breeze... trust me I’m not athletic in anyway lol. The walking is so fun even in the heat which I particularly don’t enjoy  I like 75-80 degrees that’s just the right kind of weather for me! I’m from Chicago.Which brings me back to walking in Nola the distance goes so quickly while laughing...Springhill Suites Downtown Convention Center is a ‘Chic Hidden Gem’ 5 .I truly enjoyed my 5 day stay here May 10-15, 2018. The hotel is very trendy it has a tranquil vibe to it. Our room was the best &amp; extremely clean. The beds were super comfy/breakfast was also really good. Ladies you’ll have a love/hate relationship with the bathroom since the lighting in there shows everything I mean everything on your face lol. You’ll definitely know if a pimple shows up or like makeup glitches. Plenty of hot water/water pressure with an adjustable nozzle for showering/tub. There are (2) 35-42 inch screen tvs &amp; the couch is really firm . Loved the swimming pool which is quaint and nice. I loved the fact they had ice water with cut cucumbers or lemons available 24 hrs in 2 locations right when you walk in &amp; the dining area which definitely comes in handy while drinking and walking in the heat.  The hotel is 1 mile away from Bourbon Street so basically a 20 min walk. I know that might sound a little harsh but it’s a breeze... trust me I’m not athletic in anyway lol. The walking is so fun even in the heat which I particularly don’t enjoy  I like 75-80 degrees that’s just the right kind of weather for me! I’m from Chicago.Which brings me back to walking in Nola the distance goes so quickly while laughing and drinking with friends or meeting new people. I like that there are restaurants/bars within 1/2-1 block away like Howling Wolf, Lucy’s &amp; Emeril. I can’t really give a review on their food/drinks. I’ve only been at the Howling Wolf to listen to Hot 8 Brass band they were excellent for Mother’s Day. This is my 2nd time visiting Nola so now I’m more familiar with the area. We took a taxi going places like the Omni Hotel for a 3 course meal with unlimited mimosas brunch on Mother’s Day which was A+ as well. I noticed the surroundings as the taxi took us places for the first time but we always walked back since it was so easy especially when you make your trips back to Bourbon St...drink, dance, laugh &amp; find a bench on Canal to relax enjoy the weather &amp; the view, then make our way back to the hotel where you totally enjoy the Scenery which have boutiques, eclectic stores, etc &amp; it’s not a creepy walk back to the hotel. My bestie and I are totally nocturnal our day really doesn’t start Until 9PM &amp; I’m stretching that! most of the times we don’t leave out until 11/midnight so that speaks for itself lol. FYI we took a taxi right in front of the hotel at 1amto eat. It was definitely a challenge this time around &amp; I’m sorta proud of us since we made reservations for outings like brunch, Natchez Steamboat and Mister Gregory’s Shrimp Boil which were all at the range of 11am-6pm wooooh that was hard lol. I promise each of these locations we walked back with no issues. I love Nola and our room. It’s the best!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223130-r598622292-SpringHill_Suites_New_Orleans_Downtown_Convention_Center-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>598622292</t>
+  </si>
+  <si>
+    <t>Easy Access to Riverwalk Mall</t>
+  </si>
+  <si>
+    <t>This hotel is in a good location. Upon arrival, check-in was easy. The receptionist shared good Information about places to visit and places to eat. He also provided a map so that we could maneuver easily. The location is a 5 minute walk to the convention center and the Riverwalk Mall which has a wealth of eateries, including a Cafe DuMonde for beignets. The room was very clean and it is quiet so there was no problem falling asleep. I would recommend this hotel for a short stay. An added plus is that Internet is free for all guests.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223130-r594701188-SpringHill_Suites_New_Orleans_Downtown_Convention_Center-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>594701188</t>
+  </si>
+  <si>
+    <t>07/09/2018</t>
+  </si>
+  <si>
+    <t>Very nice facility. Clean and updated</t>
+  </si>
+  <si>
+    <t>Good breakfast, very clean room.  Nice outdoor area outside on the 4th floor. The room was modern and updated as well. I could log into my Netflix account too. The best amenity is how close it is to the Convention Center.  The staff know this and they seem to be a little less friendly than other hotels nearby.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223130-r592797915-SpringHill_Suites_New_Orleans_Downtown_Convention_Center-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>592797915</t>
+  </si>
+  <si>
+    <t>07/03/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brilliant location </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This hotel is in a perfect location for visiting New Orleans.  The city centre is easy to reach on foot. The trams are running regularly just outside the hotel to further afield districts and are very cheap. The hotel is clean and the rooms are very nice. There is a rooftop bar with fantastic views of the city at nighttime. Breakfast is adequate but nothing special quite basic. The staff are very friendly and helpful.  If I  visit New Orleans again I would definitely consider this hotel again. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223130-r592614835-SpringHill_Suites_New_Orleans_Downtown_Convention_Center-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>592614835</t>
+  </si>
+  <si>
+    <t>07/02/2018</t>
+  </si>
+  <si>
+    <t>Quick visit to NOLA</t>
+  </si>
+  <si>
+    <t>My family and I spent a couple nights here as a side trip at the back end of our vacation.  Check-in was super smooth and the rooms are very nice.  We had one hang up with trying to get a blanket for the sofa bed, but it was all taken care of.  The only reason I have it 4 instead of 5 was the pool.  It was very dirty and cloudy, really needed some work.  This hotel is about 2-3 blocks from a trolley station for getting around, but we walked to the French Quarter as well (probably a mile or less away).  There is a big outlet mall 3 blocks away as well on the river.  So, location is really good.  All in all a great experience and the value is very good, probably the lowest cost for how nice it is and location.  We would stay her again! MoreShow less</t>
+  </si>
+  <si>
+    <t>My family and I spent a couple nights here as a side trip at the back end of our vacation.  Check-in was super smooth and the rooms are very nice.  We had one hang up with trying to get a blanket for the sofa bed, but it was all taken care of.  The only reason I have it 4 instead of 5 was the pool.  It was very dirty and cloudy, really needed some work.  This hotel is about 2-3 blocks from a trolley station for getting around, but we walked to the French Quarter as well (probably a mile or less away).  There is a big outlet mall 3 blocks away as well on the river.  So, location is really good.  All in all a great experience and the value is very good, probably the lowest cost for how nice it is and location.  We would stay her again! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223130-r587247243-SpringHill_Suites_New_Orleans_Downtown_Convention_Center-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>587247243</t>
+  </si>
+  <si>
+    <t>06/13/2018</t>
+  </si>
+  <si>
+    <t>Graduation</t>
+  </si>
+  <si>
+    <t>I would like to thank for the follow up by e mail and phone of Ms. Demetris Brown of Spring Hill Suites, Canal St. New Orleans for her concern about my comments of problems encountered at the hotel.  Executives like her is what makes Marriott our preferd brand.  Thank you for taking your time to adress my concern.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223130-r587069389-SpringHill_Suites_New_Orleans_Downtown_Convention_Center-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>587069389</t>
+  </si>
+  <si>
+    <t>06/12/2018</t>
+  </si>
+  <si>
+    <t>Fabulous</t>
+  </si>
+  <si>
+    <t>Our only regret was not staying long enough...The double queen room we booked was very spacious and we had a very comfortable stay as a family of 4. Travelling with 2 older teenagers, one slept in the queen bed whilst the other slept on the fold out sofa bed.We appreciated the kitchenette, which had a sizeable fridge and ample bench space. Easy walk to the riverwalk mall shops and a 15 min walk to Jackson Square.Would definitely stay here again- lower prices away from the hustle bustle!</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223130-r586712230-SpringHill_Suites_New_Orleans_Downtown_Convention_Center-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>586712230</t>
+  </si>
+  <si>
+    <t>06/11/2018</t>
+  </si>
+  <si>
+    <t>Nice Hotel with friendly staff</t>
+  </si>
+  <si>
+    <t>I am giving this hotel a 5-star rating because it is the nicest hotel at this price point that I have stayed at, period.  The rooms and hotel have had a complete remodel.  It is clean and modern.  The included breakfast is the best I have had a hotel with included breakfast.  Items were fresh and not overcooked.  The dining area was kept clean and neat.The front desk staff was helpful with directions to the various areas in the city that we wanted to get to see.  They also stored our bags during our early arrival and late departure as well as getting us an earlier than normal check in as soon as a room was available.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t>I am giving this hotel a 5-star rating because it is the nicest hotel at this price point that I have stayed at, period.  The rooms and hotel have had a complete remodel.  It is clean and modern.  The included breakfast is the best I have had a hotel with included breakfast.  Items were fresh and not overcooked.  The dining area was kept clean and neat.The front desk staff was helpful with directions to the various areas in the city that we wanted to get to see.  They also stored our bags during our early arrival and late departure as well as getting us an earlier than normal check in as soon as a room was available.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223130-r586269643-SpringHill_Suites_New_Orleans_Downtown_Convention_Center-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>586269643</t>
+  </si>
+  <si>
+    <t>06/09/2018</t>
+  </si>
+  <si>
+    <t>Comfort and convenience for those attending event at convention center</t>
+  </si>
+  <si>
+    <t>Spring Hill Suites is really well situated about two blocks from the Convention center. The rooms are very comfortable, there is excellent wifi. Just blocks from some outstanding restaurants in the warehouse district. The staff are very courteous. The hotel has a pool to cool off after a busy day and there is a nice breakfast. Kinds can make their own waffles and the coffee is very good! It is a quiet area within walking distance of the French Quarter and a lot of other sites.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223130-r585819509-SpringHill_Suites_New_Orleans_Downtown_Convention_Center-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>585819509</t>
+  </si>
+  <si>
+    <t>06/07/2018</t>
+  </si>
+  <si>
+    <t>Super Springhill</t>
+  </si>
+  <si>
+    <t>Our group of four stayed at the Springhill Suites over the Easter period. Check in was fast and the double queen bedroom was comfortable and spacious an added bonus was the French doors leading onto a patio area where we sat at night having a drink. All the staff we encountered were courteous and polite giving advice at all times. It is about a 20-25 minute walk to Bourbon Street a nice stroll especially along the Riverfront Walk. The car parking is a bit expensive, however you can find cheaper alternatives in the local area. Good breakfast to start the day an excellent choice for the price, would definitely recommend.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>Our group of four stayed at the Springhill Suites over the Easter period. Check in was fast and the double queen bedroom was comfortable and spacious an added bonus was the French doors leading onto a patio area where we sat at night having a drink. All the staff we encountered were courteous and polite giving advice at all times. It is about a 20-25 minute walk to Bourbon Street a nice stroll especially along the Riverfront Walk. The car parking is a bit expensive, however you can find cheaper alternatives in the local area. Good breakfast to start the day an excellent choice for the price, would definitely recommend.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223130-r585321478-SpringHill_Suites_New_Orleans_Downtown_Convention_Center-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>585321478</t>
+  </si>
+  <si>
+    <t>06/05/2018</t>
+  </si>
+  <si>
+    <t>Great area, not so great staff</t>
+  </si>
+  <si>
+    <t>Me and some friends stayed at this hotel for Memorial Day weekend. The check-in was fast, however, the valet is $35 PLUS TAX per day.  When we decided not to use the valet, the valet attendant snatched the parking ticket out of my friend's hand. He informed us that if we park on the street, the car would get towed... which may be true IF you do not pay the meter, which applies to any meter in any city. **FYI** There is a parking deck less than one block away for $20 per day/flat rate. 
+After staying one night, the following day my friends and I hit the town only to come back several hours later with the beds hardly made (like someone just threw the covers over the bed) and garbage cans still full.  I called the front desk the following morning before heading back out and asked if they can make sure that the room is cleaned including beds fully made and garbage cans emptied because it wasn't the day before. I spoke with a lady named Shardae (sp?) who was VERY rude on the phone after I expressed my concerns. She also hung up on me and when I called back, she denied hanging up on me but still had a bad attitude. 
+I am an avid traveler and the hotel is nice but because the valet attendant and hotel staff was rude, I will not be...Me and some friends stayed at this hotel for Memorial Day weekend. The check-in was fast, however, the valet is $35 PLUS TAX per day.  When we decided not to use the valet, the valet attendant snatched the parking ticket out of my friend's hand. He informed us that if we park on the street, the car would get towed... which may be true IF you do not pay the meter, which applies to any meter in any city. **FYI** There is a parking deck less than one block away for $20 per day/flat rate. After staying one night, the following day my friends and I hit the town only to come back several hours later with the beds hardly made (like someone just threw the covers over the bed) and garbage cans still full.  I called the front desk the following morning before heading back out and asked if they can make sure that the room is cleaned including beds fully made and garbage cans emptied because it wasn't the day before. I spoke with a lady named Shardae (sp?) who was VERY rude on the phone after I expressed my concerns. She also hung up on me and when I called back, she denied hanging up on me but still had a bad attitude. I am an avid traveler and the hotel is nice but because the valet attendant and hotel staff was rude, I will not be returning or recommending this hotel to anyone.MoreShow less</t>
+  </si>
+  <si>
+    <t>hugh b, Manager at SpringHill Suites New Orleans Downtown/Convention Center, responded to this reviewResponded June 7, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 7, 2018</t>
+  </si>
+  <si>
+    <t>Me and some friends stayed at this hotel for Memorial Day weekend. The check-in was fast, however, the valet is $35 PLUS TAX per day.  When we decided not to use the valet, the valet attendant snatched the parking ticket out of my friend's hand. He informed us that if we park on the street, the car would get towed... which may be true IF you do not pay the meter, which applies to any meter in any city. **FYI** There is a parking deck less than one block away for $20 per day/flat rate. 
+After staying one night, the following day my friends and I hit the town only to come back several hours later with the beds hardly made (like someone just threw the covers over the bed) and garbage cans still full.  I called the front desk the following morning before heading back out and asked if they can make sure that the room is cleaned including beds fully made and garbage cans emptied because it wasn't the day before. I spoke with a lady named Shardae (sp?) who was VERY rude on the phone after I expressed my concerns. She also hung up on me and when I called back, she denied hanging up on me but still had a bad attitude. 
+I am an avid traveler and the hotel is nice but because the valet attendant and hotel staff was rude, I will not be...Me and some friends stayed at this hotel for Memorial Day weekend. The check-in was fast, however, the valet is $35 PLUS TAX per day.  When we decided not to use the valet, the valet attendant snatched the parking ticket out of my friend's hand. He informed us that if we park on the street, the car would get towed... which may be true IF you do not pay the meter, which applies to any meter in any city. **FYI** There is a parking deck less than one block away for $20 per day/flat rate. After staying one night, the following day my friends and I hit the town only to come back several hours later with the beds hardly made (like someone just threw the covers over the bed) and garbage cans still full.  I called the front desk the following morning before heading back out and asked if they can make sure that the room is cleaned including beds fully made and garbage cans emptied because it wasn't the day before. I spoke with a lady named Shardae (sp?) who was VERY rude on the phone after I expressed my concerns. She also hung up on me and when I called back, she denied hanging up on me but still had a bad attitude. I am an avid traveler and the hotel is nice but because the valet attendant and hotel staff was rude, I will not be returning or recommending this hotel to anyone.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223130-r583987166-SpringHill_Suites_New_Orleans_Downtown_Convention_Center-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>583987166</t>
+  </si>
+  <si>
+    <t>05/30/2018</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t>The only thing that was disappoint was the size of the pool area, we thought that it was bigger in the pictures! But still good.The staff are very nice, they really help you and are there to “serve” you. I like the attention that they provide. The breakfast was very very good, I just missed more fruits options. Their location is amazing, the place is quiet (remember to ask for it on your reservation, because there are a pub in the other side of the street) and close to some bars and the second war museum. Also, you will pay $8 for Uber/lift to Frenchmen st. or to bourbon st. The room was very organized and clean, everyday service. It was a very very nice place to stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>The only thing that was disappoint was the size of the pool area, we thought that it was bigger in the pictures! But still good.The staff are very nice, they really help you and are there to “serve” you. I like the attention that they provide. The breakfast was very very good, I just missed more fruits options. Their location is amazing, the place is quiet (remember to ask for it on your reservation, because there are a pub in the other side of the street) and close to some bars and the second war museum. Also, you will pay $8 for Uber/lift to Frenchmen st. or to bourbon st. The room was very organized and clean, everyday service. It was a very very nice place to stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223130-r583450393-SpringHill_Suites_New_Orleans_Downtown_Convention_Center-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>583450393</t>
+  </si>
+  <si>
+    <t>05/28/2018</t>
+  </si>
+  <si>
+    <t>Comfortable stay.</t>
+  </si>
+  <si>
+    <t>Double queen and sofa bed made stay comfortable with four people.  Took Ubers to FQ, about $9. Around the corner from Emeril's (wouldn't recommend) and Cochon Butcher (would). Great tip: there are parking meters just outside the hotel.  You can park for free from 7pm to 8am. Beats garage if that works with your schedule.  Decent breakfast, always something hot offered.  My son left an item in the room, and they are mailing it back, so great service.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223130-r582536695-SpringHill_Suites_New_Orleans_Downtown_Convention_Center-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>582536695</t>
+  </si>
+  <si>
+    <t>05/24/2018</t>
+  </si>
+  <si>
+    <t>In The Heart Of New Orleans</t>
+  </si>
+  <si>
+    <t>A great location 2 blocks N of the Convention Center.  Valet parking will cost you $35/day but your vehicle is inside and safe.  Jaimie, the supervisor of the valet parking function is a tireless and dedicated customer-oriented individual who lives to serve his customers!! Parking is at a premium downtown so park and ride the streetcars - only costs $3 for a 24 hour ticket.  The hotel is spotless, the staff is friendly and helpful.  Complementary breakfast is great with a variety of choices and plenty of seating. Complementary WiFi keeps you connected.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223130-r582451939-SpringHill_Suites_New_Orleans_Downtown_Convention_Center-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>582451939</t>
+  </si>
+  <si>
+    <t>A long stay in a nice property.</t>
+  </si>
+  <si>
+    <t>Located near the convention center and the riverwalk, the Springhill Suites was a bit off the beaten path for a two week Jazz Fest stay, but was close to many good restaurants, galleries, and attractions in the CBD. This property was recently and extensively renovated with great results in the guest suites and public areas. Our party enjoyed connecting suites with balconies facing St. Joseph. The entire staff was friendly and helpful and always made us feel most welcome. The front office staff went out of their way to resolve some difficult reservation issues (I booked through a third party) that arose, the breakfast buffet staff was cheerful and efficient, and the maintainance staff worked hard to make a repair in one of our suites. Hats off the one and all at the Springhill Suites.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>Located near the convention center and the riverwalk, the Springhill Suites was a bit off the beaten path for a two week Jazz Fest stay, but was close to many good restaurants, galleries, and attractions in the CBD. This property was recently and extensively renovated with great results in the guest suites and public areas. Our party enjoyed connecting suites with balconies facing St. Joseph. The entire staff was friendly and helpful and always made us feel most welcome. The front office staff went out of their way to resolve some difficult reservation issues (I booked through a third party) that arose, the breakfast buffet staff was cheerful and efficient, and the maintainance staff worked hard to make a repair in one of our suites. Hats off the one and all at the Springhill Suites.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223130-r582262115-SpringHill_Suites_New_Orleans_Downtown_Convention_Center-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>582262115</t>
+  </si>
+  <si>
+    <t>05/23/2018</t>
+  </si>
+  <si>
+    <t>Great stay !</t>
+  </si>
+  <si>
+    <t>I was attending a conference in the Convention Center, which sits 5 minutes walk from this hotel. I had a great suite. Hotel facilities are awesome. Pool and gym are fine and the breakfast if full featured ! I definitely recommend this place. The only problem is the valet parking 35 USD/day. ... there is another one close to the hotel for 20 USD/day ;)</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223130-r581476284-SpringHill_Suites_New_Orleans_Downtown_Convention_Center-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>581476284</t>
+  </si>
+  <si>
+    <t>05/20/2018</t>
+  </si>
+  <si>
+    <t>No sleep to be had here</t>
+  </si>
+  <si>
+    <t>The hotel itself is fine for a night or two, however, prepare for unbelievable bass and noise coming from a “club” across the street. Finally at 4:10 am I was able to fall asleep. Good thing we only had my daughter’s college graduation at 8 am the next morning. We’ve stayed here before and not had this problem, so maybe it’s a new club?  At any rate, if you need sleep, stay elsewhere.MoreShow less</t>
+  </si>
+  <si>
+    <t>hugh b, Manager at SpringHill Suites New Orleans Downtown/Convention Center, responded to this reviewResponded May 20, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 20, 2018</t>
+  </si>
+  <si>
+    <t>The hotel itself is fine for a night or two, however, prepare for unbelievable bass and noise coming from a “club” across the street. Finally at 4:10 am I was able to fall asleep. Good thing we only had my daughter’s college graduation at 8 am the next morning. We’ve stayed here before and not had this problem, so maybe it’s a new club?  At any rate, if you need sleep, stay elsewhere.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223130-r580761791-SpringHill_Suites_New_Orleans_Downtown_Convention_Center-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>580761791</t>
+  </si>
+  <si>
+    <t>05/17/2018</t>
+  </si>
+  <si>
+    <t>Great location</t>
+  </si>
+  <si>
+    <t>Stayed here for 2 nights on a road trip from Texas to Florida. The hotel is easy to find and offers secure garage parking, (payable) but well worth it, as you don't need to use your car once you've checked in! Bourbon Street and the French Quarter are within walking distance, and there is a trolley car stop really close. Front desk staff are amazing, friendly and very knowledgeable about the area - restaurants, directions, transport etc, and nothing was too much trouble for them. Breakfast is very good, plenty of choice and the buffet was well stocked. The room was light and airy, plenty of space for 3 of us and the sofa bed was comfortable too! All in all, a great experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed here for 2 nights on a road trip from Texas to Florida. The hotel is easy to find and offers secure garage parking, (payable) but well worth it, as you don't need to use your car once you've checked in! Bourbon Street and the French Quarter are within walking distance, and there is a trolley car stop really close. Front desk staff are amazing, friendly and very knowledgeable about the area - restaurants, directions, transport etc, and nothing was too much trouble for them. Breakfast is very good, plenty of choice and the buffet was well stocked. The room was light and airy, plenty of space for 3 of us and the sofa bed was comfortable too! All in all, a great experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223130-r580504868-SpringHill_Suites_New_Orleans_Downtown_Convention_Center-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>580504868</t>
+  </si>
+  <si>
+    <t>05/15/2018</t>
+  </si>
+  <si>
+    <t>Awesome as always</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We have stayed at this location a few of times and have never been disappointed.  The staff is always very friendly and helpful.  The breakfast is the best, always a very nice selection of hot and cold items.  The beds are perfect, you can sink right in and get a great night's sleep.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223130-r576890310-SpringHill_Suites_New_Orleans_Downtown_Convention_Center-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>576890310</t>
+  </si>
+  <si>
+    <t>04/30/2018</t>
+  </si>
+  <si>
+    <t>Once again a great Marriott experience!</t>
+  </si>
+  <si>
+    <t>The staff was wonderful. The front desk associates were so accommodating and helpful. Everything was clean and comfortable. The continental breakfast had a pretty good variety. The hotel was in walking distance from the port of New Orleans for any cruisers who are looking for a hotel.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223130-r575790656-SpringHill_Suites_New_Orleans_Downtown_Convention_Center-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>575790656</t>
+  </si>
+  <si>
+    <t>04/26/2018</t>
+  </si>
+  <si>
+    <t>Good hotel in good location</t>
+  </si>
+  <si>
+    <t>I stayed here with my wife and 3 sons in early April, while we were on a 3 day visit to New Orleans. Hotel was easy to find and check was easy. Location is great. Waterfront and French Quarter are within walking distance, and warehouse/museum district is even closer again. WW2 museum is literally around the corner. Hotel was clean, modern and well run. My only gripe with this hotel, and pretty much every other hotel I've been in recently in this price bracket, is the breakfast. The food/coffee is fine, but if I'm paying $150 per night for a room, I think having to eat breakfast off styrofoam plates and with plastic cutlery is a bit much.Final thing: you'll need to pay for parking at one of the local garages. Same for all hotels in the area. I got parking for $25 per night. There is a garage right at the end of the street.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed here with my wife and 3 sons in early April, while we were on a 3 day visit to New Orleans. Hotel was easy to find and check was easy. Location is great. Waterfront and French Quarter are within walking distance, and warehouse/museum district is even closer again. WW2 museum is literally around the corner. Hotel was clean, modern and well run. My only gripe with this hotel, and pretty much every other hotel I've been in recently in this price bracket, is the breakfast. The food/coffee is fine, but if I'm paying $150 per night for a room, I think having to eat breakfast off styrofoam plates and with plastic cutlery is a bit much.Final thing: you'll need to pay for parking at one of the local garages. Same for all hotels in the area. I got parking for $25 per night. There is a garage right at the end of the street.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223130-r574904446-SpringHill_Suites_New_Orleans_Downtown_Convention_Center-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>574904446</t>
+  </si>
+  <si>
+    <t>04/22/2018</t>
+  </si>
+  <si>
+    <t>Huge rooms close to convention center</t>
+  </si>
+  <si>
+    <t>Newly renovated.  Rooms are huge.  Air conditioning quiet and away from the bed.  Shower plenty of pressure and plenty hot, spray adjustable many ways.  WiFi is okay for light surfing, strong signal in the room.  Plenty of plugs everywhere for your electronics, appreciate the nice touch of USB charging outlets (in case you forgot your charger).  Breakfast both the usual continental breakfast and hot items like scrambled eggs sausage and fresh made waffles.  Plenty of seating even with convention going on.  Great restaurants within 5 minute walk including Emerils.  Easy to the convention center but a bit of a hike to the French quarter (though quite safe).MoreShow less</t>
+  </si>
+  <si>
+    <t>hugh b, Manager at SpringHill Suites New Orleans Downtown/Convention Center, responded to this reviewResponded April 25, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 25, 2018</t>
+  </si>
+  <si>
+    <t>Newly renovated.  Rooms are huge.  Air conditioning quiet and away from the bed.  Shower plenty of pressure and plenty hot, spray adjustable many ways.  WiFi is okay for light surfing, strong signal in the room.  Plenty of plugs everywhere for your electronics, appreciate the nice touch of USB charging outlets (in case you forgot your charger).  Breakfast both the usual continental breakfast and hot items like scrambled eggs sausage and fresh made waffles.  Plenty of seating even with convention going on.  Great restaurants within 5 minute walk including Emerils.  Easy to the convention center but a bit of a hike to the French quarter (though quite safe).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223130-r574710749-SpringHill_Suites_New_Orleans_Downtown_Convention_Center-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>574710749</t>
+  </si>
+  <si>
+    <t>04/21/2018</t>
+  </si>
+  <si>
+    <t>A Hidden Gem</t>
+  </si>
+  <si>
+    <t>A little ways off from Canal Street, but quiet and clean. Very close to the Convention Center. Staff was helpful and will stay there again for our next work trip. It was nice to get away from the hustle and bustle of Bourbon Street and have some peace and quiet in the evenings.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>A little ways off from Canal Street, but quiet and clean. Very close to the Convention Center. Staff was helpful and will stay there again for our next work trip. It was nice to get away from the hustle and bustle of Bourbon Street and have some peace and quiet in the evenings.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223130-r574562004-SpringHill_Suites_New_Orleans_Downtown_Convention_Center-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>574562004</t>
+  </si>
+  <si>
+    <t>04/20/2018</t>
+  </si>
+  <si>
+    <t>Clean, comfortable with great amenities</t>
+  </si>
+  <si>
+    <t>Newly renovated hotel near the convention center has very nice rooms with a sink, microwave, and small refrigerator. Nice heated pool and a great, buffet-style continental breakfast. Very friendly staff!MoreShow less</t>
+  </si>
+  <si>
+    <t>Newly renovated hotel near the convention center has very nice rooms with a sink, microwave, and small refrigerator. Nice heated pool and a great, buffet-style continental breakfast. Very friendly staff!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223130-r573306098-SpringHill_Suites_New_Orleans_Downtown_Convention_Center-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>573306098</t>
+  </si>
+  <si>
+    <t>04/14/2018</t>
+  </si>
+  <si>
+    <t>Guest-friendly hotel suited to families</t>
+  </si>
+  <si>
+    <t>We were a family of 4 adults and 5 children and stayed for one night in the hotel. We occupied two suites, each large and very comfortable for 2 adults and 3 children. Two great king size beds, one wide sofa, ample hanging and drawer space for clothing and large clean bathroom. Good size kitchenette with small refrigerator and microwave oven. A desk and computer port with a numberof USB plugs available. We enjoyed a strong and free wi-fi internet connection. A free basic breakfast was offered. Swimming pool available. Staff friendly and helpful. Very well located near French quarter, The hotel offered eveything an overnighting family needs.MoreShow less</t>
+  </si>
+  <si>
+    <t>We were a family of 4 adults and 5 children and stayed for one night in the hotel. We occupied two suites, each large and very comfortable for 2 adults and 3 children. Two great king size beds, one wide sofa, ample hanging and drawer space for clothing and large clean bathroom. Good size kitchenette with small refrigerator and microwave oven. A desk and computer port with a numberof USB plugs available. We enjoyed a strong and free wi-fi internet connection. A free basic breakfast was offered. Swimming pool available. Staff friendly and helpful. Very well located near French quarter, The hotel offered eveything an overnighting family needs.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223130-r572120763-SpringHill_Suites_New_Orleans_Downtown_Convention_Center-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>572120763</t>
+  </si>
+  <si>
+    <t>04/09/2018</t>
+  </si>
+  <si>
+    <t>Great bed and shower, very close to downtown attractions</t>
+  </si>
+  <si>
+    <t>Everything was clean and modern. The bed was extremely comfortable, and the staff was helpful. Decent workout room, but it's split in two rooms: cardio on the right side of the hall, weights on the left. It's a quick Lyft to the French Quarter and other big attractions in the city. Quiet at night. Breakfast was ok; I would have liked to see more fresh ingredients available.MoreShow less</t>
+  </si>
+  <si>
+    <t>Everything was clean and modern. The bed was extremely comfortable, and the staff was helpful. Decent workout room, but it's split in two rooms: cardio on the right side of the hall, weights on the left. It's a quick Lyft to the French Quarter and other big attractions in the city. Quiet at night. Breakfast was ok; I would have liked to see more fresh ingredients available.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223130-r571886171-SpringHill_Suites_New_Orleans_Downtown_Convention_Center-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>571886171</t>
+  </si>
+  <si>
+    <t>04/08/2018</t>
+  </si>
+  <si>
+    <t>Comfortable, Clean and Updated in a Decent Location</t>
+  </si>
+  <si>
+    <t>My first stay at Springhill Suites/Convention Center was four years ago when I attended an ILA convention. Updates were made to the hotel since then, and I almost didn't recognize it when I checked in. The hotel staff was hospitable and thanks to being a Marriott rewards member, check-in was a breeze. 
+We stayed in the main building (there are two, one across the driveway), and our room was the last on a fairly quiet hallway, away from the elevator, noise, etc. Our room faced the courtyard area, which we didn't get to enjoy because it was cold outside. The room was large with a sleeper sofa for lounging, large television, microwave, fridge, etc. The king-sized bed was soft and comfortable, filled with fluffy pillows. The bathroom's toilet and shower were separate from the sink/vanity, which was great for us. We also took advantage of the fitness center to work-out in the morning before eating at the breakfast buffet. 
+The location is a couple of blocks away from the trolley stop, museums, and a couple of restaurants. We found it convenient to walk to the River Center Outlet where retail stores and a food court are located. 
+My boyfriend and I stayed here in March during spring break when several schools and colleges were out. The dining area was full of teenagers that traveled to New Orleans from schools and church groups to tour the city. We found it easier...My first stay at Springhill Suites/Convention Center was four years ago when I attended an ILA convention. Updates were made to the hotel since then, and I almost didn't recognize it when I checked in. The hotel staff was hospitable and thanks to being a Marriott rewards member, check-in was a breeze. We stayed in the main building (there are two, one across the driveway), and our room was the last on a fairly quiet hallway, away from the elevator, noise, etc. Our room faced the courtyard area, which we didn't get to enjoy because it was cold outside. The room was large with a sleeper sofa for lounging, large television, microwave, fridge, etc. The king-sized bed was soft and comfortable, filled with fluffy pillows. The bathroom's toilet and shower were separate from the sink/vanity, which was great for us. We also took advantage of the fitness center to work-out in the morning before eating at the breakfast buffet. The location is a couple of blocks away from the trolley stop, museums, and a couple of restaurants. We found it convenient to walk to the River Center Outlet where retail stores and a food court are located. My boyfriend and I stayed here in March during spring break when several schools and colleges were out. The dining area was full of teenagers that traveled to New Orleans from schools and church groups to tour the city. We found it easier to navigate the buffet early, before 8 am.On our last night at the hotel, my boyfriend lost his wallet and cellphone when we were dropped off by our Uber driver. He realized this when we were on the elevator headed to our room. I went to the hotel staff and asked them if anyone had turned in a wallet that was possibly dropped on the ground on the side of the street. It had not. I gave them my cell phone number to call me as we we attempted to contact our Uber driver. Anyway, it turned out the wallet and his cellphone were found by a guest on the street who kindly turned it in to the hotel staff. We were ecstatic! The contents of his wallet were there, but his cellphone had been crushed. Overall, we had a pleasant stay, and would recommend it to others.MoreShow less</t>
+  </si>
+  <si>
+    <t>My first stay at Springhill Suites/Convention Center was four years ago when I attended an ILA convention. Updates were made to the hotel since then, and I almost didn't recognize it when I checked in. The hotel staff was hospitable and thanks to being a Marriott rewards member, check-in was a breeze. 
+We stayed in the main building (there are two, one across the driveway), and our room was the last on a fairly quiet hallway, away from the elevator, noise, etc. Our room faced the courtyard area, which we didn't get to enjoy because it was cold outside. The room was large with a sleeper sofa for lounging, large television, microwave, fridge, etc. The king-sized bed was soft and comfortable, filled with fluffy pillows. The bathroom's toilet and shower were separate from the sink/vanity, which was great for us. We also took advantage of the fitness center to work-out in the morning before eating at the breakfast buffet. 
+The location is a couple of blocks away from the trolley stop, museums, and a couple of restaurants. We found it convenient to walk to the River Center Outlet where retail stores and a food court are located. 
+My boyfriend and I stayed here in March during spring break when several schools and colleges were out. The dining area was full of teenagers that traveled to New Orleans from schools and church groups to tour the city. We found it easier...My first stay at Springhill Suites/Convention Center was four years ago when I attended an ILA convention. Updates were made to the hotel since then, and I almost didn't recognize it when I checked in. The hotel staff was hospitable and thanks to being a Marriott rewards member, check-in was a breeze. We stayed in the main building (there are two, one across the driveway), and our room was the last on a fairly quiet hallway, away from the elevator, noise, etc. Our room faced the courtyard area, which we didn't get to enjoy because it was cold outside. The room was large with a sleeper sofa for lounging, large television, microwave, fridge, etc. The king-sized bed was soft and comfortable, filled with fluffy pillows. The bathroom's toilet and shower were separate from the sink/vanity, which was great for us. We also took advantage of the fitness center to work-out in the morning before eating at the breakfast buffet. The location is a couple of blocks away from the trolley stop, museums, and a couple of restaurants. We found it convenient to walk to the River Center Outlet where retail stores and a food court are located. My boyfriend and I stayed here in March during spring break when several schools and colleges were out. The dining area was full of teenagers that traveled to New Orleans from schools and church groups to tour the city. We found it easier to navigate the buffet early, before 8 am.On our last night at the hotel, my boyfriend lost his wallet and cellphone when we were dropped off by our Uber driver. He realized this when we were on the elevator headed to our room. I went to the hotel staff and asked them if anyone had turned in a wallet that was possibly dropped on the ground on the side of the street. It had not. I gave them my cell phone number to call me as we we attempted to contact our Uber driver. Anyway, it turned out the wallet and his cellphone were found by a guest on the street who kindly turned it in to the hotel staff. We were ecstatic! The contents of his wallet were there, but his cellphone had been crushed. Overall, we had a pleasant stay, and would recommend it to others.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223130-r571087521-SpringHill_Suites_New_Orleans_Downtown_Convention_Center-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>571087521</t>
+  </si>
+  <si>
+    <t>04/04/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Another great stay </t>
+  </si>
+  <si>
+    <t>I stayed at SpringHill with my two teenage kids. I stayed here about five years ago and they updated the hotel. The staff was very accommodating and friendly. The room had a double queen with a sofa sleeper. The room was well appointed with plenty of room for three. There was a mini fridge, microwave, small sink, coffee maker. The room was very clean and had two televisions and plenty of usb charging ports.There is a gym in the hotel with a few treadmills, elliptical, bike, kettle bells, balls, etc. The equipment was clean and served its purpose for me. There is a swimming pool but no jacuzzi. I didn’t use it but it looked clean, not very large but the kids in the pool looked like they had fun. There is a continental type breakfast with all the usual bagels, bread, scrambled eggs, meat, waffle maker, etc. Get there early it gets crowded but it worked well. The location of the hotel is in a business district, very close to the WWII Museum, it took me 7 minutes to walk there. There is a Starbucks less a few minutes to walk there. The French Quarter about 20 minutes walk. A few restaurants in the area but not a ton. Overall great place to stay, lots of families. Got a great referral for a airport shuttle from the hotel staff.I will be back and stay again.  MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed at SpringHill with my two teenage kids. I stayed here about five years ago and they updated the hotel. The staff was very accommodating and friendly. The room had a double queen with a sofa sleeper. The room was well appointed with plenty of room for three. There was a mini fridge, microwave, small sink, coffee maker. The room was very clean and had two televisions and plenty of usb charging ports.There is a gym in the hotel with a few treadmills, elliptical, bike, kettle bells, balls, etc. The equipment was clean and served its purpose for me. There is a swimming pool but no jacuzzi. I didn’t use it but it looked clean, not very large but the kids in the pool looked like they had fun. There is a continental type breakfast with all the usual bagels, bread, scrambled eggs, meat, waffle maker, etc. Get there early it gets crowded but it worked well. The location of the hotel is in a business district, very close to the WWII Museum, it took me 7 minutes to walk there. There is a Starbucks less a few minutes to walk there. The French Quarter about 20 minutes walk. A few restaurants in the area but not a ton. Overall great place to stay, lots of families. Got a great referral for a airport shuttle from the hotel staff.I will be back and stay again.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223130-r570631647-SpringHill_Suites_New_Orleans_Downtown_Convention_Center-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>570631647</t>
+  </si>
+  <si>
+    <t>04/02/2018</t>
+  </si>
+  <si>
+    <t>Excellent place to stay.</t>
+  </si>
+  <si>
+    <t>The rooms were clean and the staff were very personable. The breakfast was excellent with a variety of items. The only set back was the parking. $35 a day and that does not include the tax. Would have been excellent if not for the parking.MoreShow less</t>
+  </si>
+  <si>
+    <t>The rooms were clean and the staff were very personable. The breakfast was excellent with a variety of items. The only set back was the parking. $35 a day and that does not include the tax. Would have been excellent if not for the parking.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223130-r570626683-SpringHill_Suites_New_Orleans_Downtown_Convention_Center-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>570626683</t>
+  </si>
+  <si>
+    <t>Great location in the Arts/Warehouse district.</t>
+  </si>
+  <si>
+    <t>Don't let the view across the street scare you away.  This hotel is a short walk from the World War II Museum, the Convention Center, and the River Walk, where you can find a trolley car to the French Quarter for $1.25. A car is not needed. A taxi from the airport costs $36. This is a Marriott hotel. The staff is friendly, although I don't think that I will miss being called, "Sweet Pea" anytime soon! The rooms are a good value - they are clean, contain a refrigerator, and a hot breakfast is included.  The property also has a small in-ground pool. There are good restaurants within walking distance of the hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Don't let the view across the street scare you away.  This hotel is a short walk from the World War II Museum, the Convention Center, and the River Walk, where you can find a trolley car to the French Quarter for $1.25. A car is not needed. A taxi from the airport costs $36. This is a Marriott hotel. The staff is friendly, although I don't think that I will miss being called, "Sweet Pea" anytime soon! The rooms are a good value - they are clean, contain a refrigerator, and a hot breakfast is included.  The property also has a small in-ground pool. There are good restaurants within walking distance of the hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223130-r570203686-SpringHill_Suites_New_Orleans_Downtown_Convention_Center-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>570203686</t>
+  </si>
+  <si>
+    <t>04/01/2018</t>
+  </si>
+  <si>
+    <t>Great stay. Clean and quite.</t>
+  </si>
+  <si>
+    <t>Pleasantly surprised by this hotel. Lobby was dirty so I had concerns, but as soon as we got to the room, all concerns went away. Very clean, modern and comfortable. Bed very comfortable. Good breakfast. All the attactions are an easy trolly ride ($3 per 24 hours). Valet your car at the hotel, do not drive into french quarter. We fel very safe walking at 11 at night.MoreShow less</t>
+  </si>
+  <si>
+    <t>Pleasantly surprised by this hotel. Lobby was dirty so I had concerns, but as soon as we got to the room, all concerns went away. Very clean, modern and comfortable. Bed very comfortable. Good breakfast. All the attactions are an easy trolly ride ($3 per 24 hours). Valet your car at the hotel, do not drive into french quarter. We fel very safe walking at 11 at night.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223130-r570010669-SpringHill_Suites_New_Orleans_Downtown_Convention_Center-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>570010669</t>
+  </si>
+  <si>
+    <t>03/31/2018</t>
+  </si>
+  <si>
+    <t>Great remodeling!</t>
+  </si>
+  <si>
+    <t>We stayed one night at this hotel simply because it was a better rate for that evening. However we handed to be wonderful the breakfast was incredible with so many choices, and the staff at breakfast were so helpful I noticed especially with the children. Although the hotel that we stayed at for most of our trip we also liked . I kind of wish we stayed at this one for the duration. Looking at some of the pictures before the remodel they did a great job everything was tasteful fresh and modernized. We had several USB ports in our room for charging of all our devices</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223130-r569973964-SpringHill_Suites_New_Orleans_Downtown_Convention_Center-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>569973964</t>
+  </si>
+  <si>
+    <t>Good enough hotel</t>
+  </si>
+  <si>
+    <t>Hotel did the job for our weekend in NOLA. Location was a 15 minute walk to the French Quarters. Breakfast on the weekends was really crazy but the staff did a good job replenishing the food. Rooms spacious with comfortable beds. Stayed with points. MoreShow less</t>
+  </si>
+  <si>
+    <t>Hotel did the job for our weekend in NOLA. Location was a 15 minute walk to the French Quarters. Breakfast on the weekends was really crazy but the staff did a good job replenishing the food. Rooms spacious with comfortable beds. Stayed with points. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223130-r568234431-SpringHill_Suites_New_Orleans_Downtown_Convention_Center-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>568234431</t>
+  </si>
+  <si>
+    <t>03/23/2018</t>
+  </si>
+  <si>
+    <t>Very nice last-minute stay</t>
+  </si>
+  <si>
+    <t>An excellent choice for those wanting to be near the Convention Center, Riverwalk or even the French Quarter. We had a lovely two-queen size bed room with a space for office work and a sink and refrigerator. The room was very clean and the staff most accommodating and friendly. The free breakfast was terrific.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223130-r567797590-SpringHill_Suites_New_Orleans_Downtown_Convention_Center-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>567797590</t>
+  </si>
+  <si>
+    <t>03/20/2018</t>
+  </si>
+  <si>
+    <t>Location!</t>
+  </si>
+  <si>
+    <t>The location is great. It is an easy walk to the Convention Center. There are many restaurants in the vicinity within walking distance. It is also easy to walk to the Outlet and either take the trolley or walk to the French Quarter. The rooms are very spacious! There are two TV's, a large pull-out sofa, and a nice fridge and microwave. My only complaint is that the floors are huge, with many hallways, and only one location for the three elevators. The gym is split into two different rooms, and was very clean.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223130-r566390232-SpringHill_Suites_New_Orleans_Downtown_Convention_Center-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>566390232</t>
+  </si>
+  <si>
+    <t>03/13/2018</t>
+  </si>
+  <si>
+    <t>Excellent Hotel, Great Location, Great Breakfast</t>
+  </si>
+  <si>
+    <t>This hotel was fantastic. The price was good and the rooms were spacious, clean and comfortable. The breakfast was outstanding and the staff was friendly and helpful. The price was very fair. The hotel was also within walking distance of virtually everything... the WWII museum, the River Walk, the French Quarter, etc.The only downside was the valet. I realize he's not actually a hotel employee but he does represent them as he's the first person most people have contact with. The valet was incredibly rude to the point that he was screaming at other hotel customers. First time in my life that I stiffed a valet on a tip. Still, the hotel was fantastic!MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel was fantastic. The price was good and the rooms were spacious, clean and comfortable. The breakfast was outstanding and the staff was friendly and helpful. The price was very fair. The hotel was also within walking distance of virtually everything... the WWII museum, the River Walk, the French Quarter, etc.The only downside was the valet. I realize he's not actually a hotel employee but he does represent them as he's the first person most people have contact with. The valet was incredibly rude to the point that he was screaming at other hotel customers. First time in my life that I stiffed a valet on a tip. Still, the hotel was fantastic!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223130-r565548040-SpringHill_Suites_New_Orleans_Downtown_Convention_Center-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>565548040</t>
+  </si>
+  <si>
+    <t>03/09/2018</t>
+  </si>
+  <si>
+    <t>Amazing staff and location</t>
+  </si>
+  <si>
+    <t>The room was clean and well furnished with all the amenities one would need for a business trip. The bed was comfortable and clean.The location was fantastic for me as I was visiting for a convention which is only a 2-minute walk away. The free breakfast and coffee was a nice touch.The best part of this hotel was the attentive and helpful staff. Would stay here again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223130-r564752582-SpringHill_Suites_New_Orleans_Downtown_Convention_Center-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>564752582</t>
+  </si>
+  <si>
+    <t>03/05/2018</t>
+  </si>
+  <si>
+    <t>Great location!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stayed at this location. For the RnR.  The property was nice and all the employees were very pleasant.  We were able to walk everywhere we needed to go.  My only complaint is on race day morning, they did not offer an earlier breakfast.   When I stay at the residence inn (1 block over) they have breakfast available at 5:30a or 6a for the runners </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223130-r564466803-SpringHill_Suites_New_Orleans_Downtown_Convention_Center-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>564466803</t>
+  </si>
+  <si>
+    <t>03/04/2018</t>
+  </si>
+  <si>
+    <t>Awesome!</t>
+  </si>
+  <si>
+    <t>The people at the front desk were great and so nice! Sherda W. was fantastic at check-in! Breakfast was had some hot food, too, which was a plus! Would stay here again! Room was very clean! They were very accommodating :)</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223130-r564373472-SpringHill_Suites_New_Orleans_Downtown_Convention_Center-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>564373472</t>
+  </si>
+  <si>
+    <t>Good location for our trip</t>
+  </si>
+  <si>
+    <t>Have never stayed in a SpringHill property, anywhere.  Our stay here in New Orleans was quite satisfactory.   The location was not real close to the French Quarter, but a modest walk down the street to a streetcar line and you were whisk away to area of  Bon Ton Roulet.   The streetcar ride only cost $3 per person for an all day pass, excellent deal.  The hotel is only 2 block from the WWII Wam Museum which was one of the attractions I planed to visit.  The same two blocks also puts you on Magazine Street, a highly touted shopping/gallery/restaurant street that runs 6 miles from end to end.  My wife also visited the Ogden Museum of Southern Art in the same area.  The location fit our needs quite well
+Loved the hotel lobby with a soaring view to an old time style wood beam roof.  The building appears to be a retro-fitted old warehouse.   Out room was on the 4th floor and was clean, comfortable, and quiet the 4days of our visit.   Suite type of room with 2 large screen TV’s and more than satisfactory space.   While warm, not quite satisfactory for a swim in the appealing courtyard located pool. $35/per day valet parking undercover.  With limited parking in the area all the hotels I considered appeared to charge similar fees.  With reasonable room rates, the total cost per day was satisfactory. 
+The breakfast area was extremely well maintained by...Have never stayed in a SpringHill property, anywhere.  Our stay here in New Orleans was quite satisfactory.   The location was not real close to the French Quarter, but a modest walk down the street to a streetcar line and you were whisk away to area of  Bon Ton Roulet.   The streetcar ride only cost $3 per person for an all day pass, excellent deal.  The hotel is only 2 block from the WWII Wam Museum which was one of the attractions I planed to visit.  The same two blocks also puts you on Magazine Street, a highly touted shopping/gallery/restaurant street that runs 6 miles from end to end.  My wife also visited the Ogden Museum of Southern Art in the same area.  The location fit our needs quite wellLoved the hotel lobby with a soaring view to an old time style wood beam roof.  The building appears to be a retro-fitted old warehouse.   Out room was on the 4th floor and was clean, comfortable, and quiet the 4days of our visit.   Suite type of room with 2 large screen TV’s and more than satisfactory space.   While warm, not quite satisfactory for a swim in the appealing courtyard located pool. $35/per day valet parking undercover.  With limited parking in the area all the hotels I considered appeared to charge similar fees.  With reasonable room rates, the total cost per day was satisfactory. The breakfast area was extremely well maintained by a large staff of helpful, efficient and amazingly cheerful (given the time of day) women.   One of staff had a lovely voice which she used to vocalize short bursts of songs and musical phrases.   Can’t help but make you day start well.   Offerings were quite good even though having just scrambled eggs each day is a bit repetitive.  Several different hot breakfast meats with breads and pastries are also available (nice selection).   The large seating area was never filled during our stay.  With 3 elevators we never had long waits to or from the 4 floor room.  Good choice for our trip. MoreShow less</t>
+  </si>
+  <si>
+    <t>Have never stayed in a SpringHill property, anywhere.  Our stay here in New Orleans was quite satisfactory.   The location was not real close to the French Quarter, but a modest walk down the street to a streetcar line and you were whisk away to area of  Bon Ton Roulet.   The streetcar ride only cost $3 per person for an all day pass, excellent deal.  The hotel is only 2 block from the WWII Wam Museum which was one of the attractions I planed to visit.  The same two blocks also puts you on Magazine Street, a highly touted shopping/gallery/restaurant street that runs 6 miles from end to end.  My wife also visited the Ogden Museum of Southern Art in the same area.  The location fit our needs quite well
+Loved the hotel lobby with a soaring view to an old time style wood beam roof.  The building appears to be a retro-fitted old warehouse.   Out room was on the 4th floor and was clean, comfortable, and quiet the 4days of our visit.   Suite type of room with 2 large screen TV’s and more than satisfactory space.   While warm, not quite satisfactory for a swim in the appealing courtyard located pool. $35/per day valet parking undercover.  With limited parking in the area all the hotels I considered appeared to charge similar fees.  With reasonable room rates, the total cost per day was satisfactory. 
+The breakfast area was extremely well maintained by...Have never stayed in a SpringHill property, anywhere.  Our stay here in New Orleans was quite satisfactory.   The location was not real close to the French Quarter, but a modest walk down the street to a streetcar line and you were whisk away to area of  Bon Ton Roulet.   The streetcar ride only cost $3 per person for an all day pass, excellent deal.  The hotel is only 2 block from the WWII Wam Museum which was one of the attractions I planed to visit.  The same two blocks also puts you on Magazine Street, a highly touted shopping/gallery/restaurant street that runs 6 miles from end to end.  My wife also visited the Ogden Museum of Southern Art in the same area.  The location fit our needs quite wellLoved the hotel lobby with a soaring view to an old time style wood beam roof.  The building appears to be a retro-fitted old warehouse.   Out room was on the 4th floor and was clean, comfortable, and quiet the 4days of our visit.   Suite type of room with 2 large screen TV’s and more than satisfactory space.   While warm, not quite satisfactory for a swim in the appealing courtyard located pool. $35/per day valet parking undercover.  With limited parking in the area all the hotels I considered appeared to charge similar fees.  With reasonable room rates, the total cost per day was satisfactory. The breakfast area was extremely well maintained by a large staff of helpful, efficient and amazingly cheerful (given the time of day) women.   One of staff had a lovely voice which she used to vocalize short bursts of songs and musical phrases.   Can’t help but make you day start well.   Offerings were quite good even though having just scrambled eggs each day is a bit repetitive.  Several different hot breakfast meats with breads and pastries are also available (nice selection).   The large seating area was never filled during our stay.  With 3 elevators we never had long waits to or from the 4 floor room.  Good choice for our trip. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223130-r564250946-SpringHill_Suites_New_Orleans_Downtown_Convention_Center-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>564250946</t>
+  </si>
+  <si>
+    <t>Great Place for Business Nice place to relax</t>
+  </si>
+  <si>
+    <t>Stayed her for a 3 day conference.  Meeting rooms were comfortable.  Sleeping room was VERY comfortable!  Had a small issue which was resolved immediately.  Room was spacious and clean with a great space for working.  Bed was very comfortable.  My only challenge was that the last night was Friday and the "clubs" were playing their music super loud with very strong bass.  I couldn't sleep until it stopped at 4 am!  So - if you aren't out to party, request an inside courtyard room.  The breakfast was AMAZING!  And the staff were all extremely welcoming and helpful.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223130-r564128174-SpringHill_Suites_New_Orleans_Downtown_Convention_Center-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>564128174</t>
+  </si>
+  <si>
+    <t>03/03/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clean, pleasant hotel </t>
+  </si>
+  <si>
+    <t>The location is within walking distance of everything I needed. The  hotel was clean, the breakfast was good and prompt. My only complaint was I booked on Priceline, no mention of the $40 parking fee. All the other locations were up front and stated such. Very misleading especially when I found closer locations to where I needed but thought this with maybe a $20 parking fee would have been better. Lesson learned, for this lesson they have lost a Marriott rewards member. I felt bait and switched. MoreShow less</t>
+  </si>
+  <si>
+    <t>hugh b, Manager at SpringHill Suites New Orleans Downtown/Convention Center, responded to this reviewResponded March 4, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 4, 2018</t>
+  </si>
+  <si>
+    <t>The location is within walking distance of everything I needed. The  hotel was clean, the breakfast was good and prompt. My only complaint was I booked on Priceline, no mention of the $40 parking fee. All the other locations were up front and stated such. Very misleading especially when I found closer locations to where I needed but thought this with maybe a $20 parking fee would have been better. Lesson learned, for this lesson they have lost a Marriott rewards member. I felt bait and switched. More</t>
   </si>
   <si>
     <t>Hotel_Name</t>
@@ -561,6 +1631,3565 @@
         <v>24</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>42557</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>35</v>
+      </c>
+      <c r="X2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>42557</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>42557</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" t="s">
+        <v>47</v>
+      </c>
+      <c r="L4" t="s">
+        <v>48</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>49</v>
+      </c>
+      <c r="O4" t="s">
+        <v>50</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>42557</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" t="s">
+        <v>53</v>
+      </c>
+      <c r="L5" t="s">
+        <v>54</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>49</v>
+      </c>
+      <c r="O5" t="s">
+        <v>34</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>3</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>42557</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" t="s">
+        <v>58</v>
+      </c>
+      <c r="K6" t="s">
+        <v>59</v>
+      </c>
+      <c r="L6" t="s">
+        <v>60</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>61</v>
+      </c>
+      <c r="O6" t="s">
+        <v>34</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>42557</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L7" t="s">
+        <v>67</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s"/>
+      <c r="O7" t="s"/>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>42557</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J8" t="s">
+        <v>70</v>
+      </c>
+      <c r="K8" t="s">
+        <v>71</v>
+      </c>
+      <c r="L8" t="s">
+        <v>72</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O8" t="s">
+        <v>73</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>42557</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" t="s">
+        <v>76</v>
+      </c>
+      <c r="J9" t="s">
+        <v>77</v>
+      </c>
+      <c r="K9" t="s">
+        <v>78</v>
+      </c>
+      <c r="L9" t="s">
+        <v>79</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>49</v>
+      </c>
+      <c r="O9" t="s">
+        <v>80</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>4</v>
+      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>4</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>42557</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s">
+        <v>81</v>
+      </c>
+      <c r="G10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" t="s">
+        <v>82</v>
+      </c>
+      <c r="J10" t="s">
+        <v>83</v>
+      </c>
+      <c r="K10" t="s">
+        <v>84</v>
+      </c>
+      <c r="L10" t="s">
+        <v>85</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>49</v>
+      </c>
+      <c r="O10" t="s">
+        <v>80</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>42557</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" t="s">
+        <v>86</v>
+      </c>
+      <c r="G11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" t="s">
+        <v>87</v>
+      </c>
+      <c r="J11" t="s">
+        <v>88</v>
+      </c>
+      <c r="K11" t="s">
+        <v>89</v>
+      </c>
+      <c r="L11" t="s">
+        <v>90</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s"/>
+      <c r="O11" t="s"/>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>42557</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" t="s">
+        <v>92</v>
+      </c>
+      <c r="J12" t="s">
+        <v>93</v>
+      </c>
+      <c r="K12" t="s">
+        <v>94</v>
+      </c>
+      <c r="L12" t="s">
+        <v>95</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>96</v>
+      </c>
+      <c r="O12" t="s">
+        <v>80</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>42557</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" t="s">
+        <v>97</v>
+      </c>
+      <c r="G13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" t="s">
+        <v>98</v>
+      </c>
+      <c r="J13" t="s">
+        <v>99</v>
+      </c>
+      <c r="K13" t="s">
+        <v>100</v>
+      </c>
+      <c r="L13" t="s">
+        <v>101</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>96</v>
+      </c>
+      <c r="O13" t="s">
+        <v>80</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="n">
+        <v>3</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>102</v>
+      </c>
+      <c r="X13" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>42557</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" t="s">
+        <v>105</v>
+      </c>
+      <c r="G14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" t="s">
+        <v>106</v>
+      </c>
+      <c r="J14" t="s">
+        <v>107</v>
+      </c>
+      <c r="K14" t="s">
+        <v>108</v>
+      </c>
+      <c r="L14" t="s">
+        <v>109</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>96</v>
+      </c>
+      <c r="O14" t="s">
+        <v>73</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>42557</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" t="s">
+        <v>110</v>
+      </c>
+      <c r="G15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" t="s">
+        <v>111</v>
+      </c>
+      <c r="J15" t="s">
+        <v>112</v>
+      </c>
+      <c r="K15" t="s">
+        <v>113</v>
+      </c>
+      <c r="L15" t="s">
+        <v>114</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>96</v>
+      </c>
+      <c r="O15" t="s">
+        <v>73</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>115</v>
+      </c>
+      <c r="X15" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>42557</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" t="s">
+        <v>118</v>
+      </c>
+      <c r="G16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" t="s">
+        <v>119</v>
+      </c>
+      <c r="J16" t="s">
+        <v>120</v>
+      </c>
+      <c r="K16" t="s">
+        <v>121</v>
+      </c>
+      <c r="L16" t="s">
+        <v>122</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>61</v>
+      </c>
+      <c r="O16" t="s">
+        <v>73</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="n">
+        <v>4</v>
+      </c>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>42557</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" t="s">
+        <v>123</v>
+      </c>
+      <c r="G17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" t="s">
+        <v>124</v>
+      </c>
+      <c r="J17" t="s">
+        <v>125</v>
+      </c>
+      <c r="K17" t="s">
+        <v>126</v>
+      </c>
+      <c r="L17" t="s">
+        <v>127</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>61</v>
+      </c>
+      <c r="O17" t="s">
+        <v>73</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="n">
+        <v>4</v>
+      </c>
+      <c r="S17" t="n">
+        <v>3</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>3</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>42557</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" t="s">
+        <v>129</v>
+      </c>
+      <c r="G18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" t="s">
+        <v>130</v>
+      </c>
+      <c r="J18" t="s">
+        <v>131</v>
+      </c>
+      <c r="K18" t="s">
+        <v>132</v>
+      </c>
+      <c r="L18" t="s">
+        <v>133</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>61</v>
+      </c>
+      <c r="O18" t="s">
+        <v>34</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>42557</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" t="s">
+        <v>135</v>
+      </c>
+      <c r="G19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" t="s">
+        <v>136</v>
+      </c>
+      <c r="J19" t="s">
+        <v>137</v>
+      </c>
+      <c r="K19" t="s">
+        <v>138</v>
+      </c>
+      <c r="L19" t="s">
+        <v>139</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>140</v>
+      </c>
+      <c r="O19" t="s">
+        <v>80</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>42557</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" t="s">
+        <v>142</v>
+      </c>
+      <c r="G20" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" t="s">
+        <v>143</v>
+      </c>
+      <c r="J20" t="s">
+        <v>137</v>
+      </c>
+      <c r="K20" t="s">
+        <v>144</v>
+      </c>
+      <c r="L20" t="s">
+        <v>145</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>61</v>
+      </c>
+      <c r="O20" t="s">
+        <v>73</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>42557</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" t="s">
+        <v>146</v>
+      </c>
+      <c r="G21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" t="s">
+        <v>147</v>
+      </c>
+      <c r="J21" t="s">
+        <v>148</v>
+      </c>
+      <c r="K21" t="s">
+        <v>149</v>
+      </c>
+      <c r="L21" t="s">
+        <v>150</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s"/>
+      <c r="O21" t="s"/>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>42557</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" t="s">
+        <v>151</v>
+      </c>
+      <c r="G22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" t="s">
+        <v>152</v>
+      </c>
+      <c r="J22" t="s">
+        <v>153</v>
+      </c>
+      <c r="K22" t="s">
+        <v>154</v>
+      </c>
+      <c r="L22" t="s">
+        <v>155</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>140</v>
+      </c>
+      <c r="O22" t="s">
+        <v>73</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>42557</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" t="s">
+        <v>156</v>
+      </c>
+      <c r="G23" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23" t="s">
+        <v>157</v>
+      </c>
+      <c r="J23" t="s">
+        <v>158</v>
+      </c>
+      <c r="K23" t="s">
+        <v>159</v>
+      </c>
+      <c r="L23" t="s">
+        <v>160</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>61</v>
+      </c>
+      <c r="O23" t="s">
+        <v>73</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>42557</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" t="s">
+        <v>162</v>
+      </c>
+      <c r="G24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24" t="s">
+        <v>28</v>
+      </c>
+      <c r="I24" t="s">
+        <v>163</v>
+      </c>
+      <c r="J24" t="s">
+        <v>164</v>
+      </c>
+      <c r="K24" t="s">
+        <v>165</v>
+      </c>
+      <c r="L24" t="s">
+        <v>166</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>140</v>
+      </c>
+      <c r="O24" t="s">
+        <v>73</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>42557</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" t="s">
+        <v>167</v>
+      </c>
+      <c r="G25" t="s">
+        <v>27</v>
+      </c>
+      <c r="H25" t="s">
+        <v>28</v>
+      </c>
+      <c r="I25" t="s">
+        <v>168</v>
+      </c>
+      <c r="J25" t="s">
+        <v>169</v>
+      </c>
+      <c r="K25" t="s">
+        <v>170</v>
+      </c>
+      <c r="L25" t="s">
+        <v>171</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>172</v>
+      </c>
+      <c r="O25" t="s">
+        <v>73</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>42557</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" t="s">
+        <v>173</v>
+      </c>
+      <c r="G26" t="s">
+        <v>27</v>
+      </c>
+      <c r="H26" t="s">
+        <v>28</v>
+      </c>
+      <c r="I26" t="s">
+        <v>174</v>
+      </c>
+      <c r="J26" t="s">
+        <v>175</v>
+      </c>
+      <c r="K26" t="s">
+        <v>176</v>
+      </c>
+      <c r="L26" t="s">
+        <v>177</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>178</v>
+      </c>
+      <c r="O26" t="s">
+        <v>50</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>42557</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" t="s">
+        <v>180</v>
+      </c>
+      <c r="G27" t="s">
+        <v>27</v>
+      </c>
+      <c r="H27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I27" t="s">
+        <v>181</v>
+      </c>
+      <c r="J27" t="s">
+        <v>182</v>
+      </c>
+      <c r="K27" t="s">
+        <v>183</v>
+      </c>
+      <c r="L27" t="s">
+        <v>184</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>178</v>
+      </c>
+      <c r="O27" t="s">
+        <v>34</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>42557</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" t="s">
+        <v>185</v>
+      </c>
+      <c r="G28" t="s">
+        <v>27</v>
+      </c>
+      <c r="H28" t="s">
+        <v>28</v>
+      </c>
+      <c r="I28" t="s">
+        <v>186</v>
+      </c>
+      <c r="J28" t="s">
+        <v>187</v>
+      </c>
+      <c r="K28" t="s">
+        <v>188</v>
+      </c>
+      <c r="L28" t="s">
+        <v>189</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>190</v>
+      </c>
+      <c r="O28" t="s">
+        <v>73</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>42557</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29" t="s">
+        <v>192</v>
+      </c>
+      <c r="G29" t="s">
+        <v>27</v>
+      </c>
+      <c r="H29" t="s">
+        <v>28</v>
+      </c>
+      <c r="I29" t="s">
+        <v>193</v>
+      </c>
+      <c r="J29" t="s">
+        <v>194</v>
+      </c>
+      <c r="K29" t="s">
+        <v>195</v>
+      </c>
+      <c r="L29" t="s">
+        <v>196</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
+        <v>140</v>
+      </c>
+      <c r="O29" t="s">
+        <v>80</v>
+      </c>
+      <c r="P29" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>3</v>
+      </c>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>2</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>197</v>
+      </c>
+      <c r="X29" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>42557</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" t="s">
+        <v>200</v>
+      </c>
+      <c r="G30" t="s">
+        <v>27</v>
+      </c>
+      <c r="H30" t="s">
+        <v>28</v>
+      </c>
+      <c r="I30" t="s">
+        <v>201</v>
+      </c>
+      <c r="J30" t="s">
+        <v>202</v>
+      </c>
+      <c r="K30" t="s">
+        <v>203</v>
+      </c>
+      <c r="L30" t="s">
+        <v>204</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>140</v>
+      </c>
+      <c r="O30" t="s">
+        <v>80</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>42557</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" t="s">
+        <v>206</v>
+      </c>
+      <c r="G31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H31" t="s">
+        <v>28</v>
+      </c>
+      <c r="I31" t="s">
+        <v>207</v>
+      </c>
+      <c r="J31" t="s">
+        <v>208</v>
+      </c>
+      <c r="K31" t="s">
+        <v>209</v>
+      </c>
+      <c r="L31" t="s">
+        <v>210</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>140</v>
+      </c>
+      <c r="O31" t="s">
+        <v>73</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="n">
+        <v>4</v>
+      </c>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>42557</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F32" t="s">
+        <v>211</v>
+      </c>
+      <c r="G32" t="s">
+        <v>27</v>
+      </c>
+      <c r="H32" t="s">
+        <v>28</v>
+      </c>
+      <c r="I32" t="s">
+        <v>212</v>
+      </c>
+      <c r="J32" t="s">
+        <v>213</v>
+      </c>
+      <c r="K32" t="s">
+        <v>214</v>
+      </c>
+      <c r="L32" t="s">
+        <v>215</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s"/>
+      <c r="O32" t="s"/>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>42557</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F33" t="s">
+        <v>216</v>
+      </c>
+      <c r="G33" t="s">
+        <v>27</v>
+      </c>
+      <c r="H33" t="s">
+        <v>28</v>
+      </c>
+      <c r="I33" t="s">
+        <v>217</v>
+      </c>
+      <c r="J33" t="s">
+        <v>213</v>
+      </c>
+      <c r="K33" t="s">
+        <v>218</v>
+      </c>
+      <c r="L33" t="s">
+        <v>219</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>220</v>
+      </c>
+      <c r="O33" t="s">
+        <v>50</v>
+      </c>
+      <c r="P33" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="n">
+        <v>4</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>42557</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" t="s">
+        <v>222</v>
+      </c>
+      <c r="G34" t="s">
+        <v>27</v>
+      </c>
+      <c r="H34" t="s">
+        <v>28</v>
+      </c>
+      <c r="I34" t="s">
+        <v>223</v>
+      </c>
+      <c r="J34" t="s">
+        <v>224</v>
+      </c>
+      <c r="K34" t="s">
+        <v>225</v>
+      </c>
+      <c r="L34" t="s">
+        <v>226</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>140</v>
+      </c>
+      <c r="O34" t="s">
+        <v>34</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>4</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>42557</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>25</v>
+      </c>
+      <c r="F35" t="s">
+        <v>227</v>
+      </c>
+      <c r="G35" t="s">
+        <v>27</v>
+      </c>
+      <c r="H35" t="s">
+        <v>28</v>
+      </c>
+      <c r="I35" t="s">
+        <v>228</v>
+      </c>
+      <c r="J35" t="s">
+        <v>229</v>
+      </c>
+      <c r="K35" t="s">
+        <v>230</v>
+      </c>
+      <c r="L35" t="s">
+        <v>231</v>
+      </c>
+      <c r="M35" t="n">
+        <v>3</v>
+      </c>
+      <c r="N35" t="s">
+        <v>140</v>
+      </c>
+      <c r="O35" t="s">
+        <v>73</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>232</v>
+      </c>
+      <c r="X35" t="s">
+        <v>233</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>42557</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>25</v>
+      </c>
+      <c r="F36" t="s">
+        <v>235</v>
+      </c>
+      <c r="G36" t="s">
+        <v>27</v>
+      </c>
+      <c r="H36" t="s">
+        <v>28</v>
+      </c>
+      <c r="I36" t="s">
+        <v>236</v>
+      </c>
+      <c r="J36" t="s">
+        <v>237</v>
+      </c>
+      <c r="K36" t="s">
+        <v>238</v>
+      </c>
+      <c r="L36" t="s">
+        <v>239</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>220</v>
+      </c>
+      <c r="O36" t="s">
+        <v>80</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>42557</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>25</v>
+      </c>
+      <c r="F37" t="s">
+        <v>241</v>
+      </c>
+      <c r="G37" t="s">
+        <v>27</v>
+      </c>
+      <c r="H37" t="s">
+        <v>28</v>
+      </c>
+      <c r="I37" t="s">
+        <v>242</v>
+      </c>
+      <c r="J37" t="s">
+        <v>243</v>
+      </c>
+      <c r="K37" t="s">
+        <v>244</v>
+      </c>
+      <c r="L37" t="s">
+        <v>245</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s"/>
+      <c r="O37" t="s"/>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>42557</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F38" t="s">
+        <v>246</v>
+      </c>
+      <c r="G38" t="s">
+        <v>27</v>
+      </c>
+      <c r="H38" t="s">
+        <v>28</v>
+      </c>
+      <c r="I38" t="s">
+        <v>247</v>
+      </c>
+      <c r="J38" t="s">
+        <v>248</v>
+      </c>
+      <c r="K38" t="s">
+        <v>249</v>
+      </c>
+      <c r="L38" t="s">
+        <v>250</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>220</v>
+      </c>
+      <c r="O38" t="s">
+        <v>80</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>42557</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>25</v>
+      </c>
+      <c r="F39" t="s">
+        <v>251</v>
+      </c>
+      <c r="G39" t="s">
+        <v>27</v>
+      </c>
+      <c r="H39" t="s">
+        <v>28</v>
+      </c>
+      <c r="I39" t="s">
+        <v>252</v>
+      </c>
+      <c r="J39" t="s">
+        <v>253</v>
+      </c>
+      <c r="K39" t="s">
+        <v>254</v>
+      </c>
+      <c r="L39" t="s">
+        <v>255</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>220</v>
+      </c>
+      <c r="O39" t="s">
+        <v>73</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>42557</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F40" t="s">
+        <v>257</v>
+      </c>
+      <c r="G40" t="s">
+        <v>27</v>
+      </c>
+      <c r="H40" t="s">
+        <v>28</v>
+      </c>
+      <c r="I40" t="s">
+        <v>258</v>
+      </c>
+      <c r="J40" t="s">
+        <v>259</v>
+      </c>
+      <c r="K40" t="s">
+        <v>260</v>
+      </c>
+      <c r="L40" t="s">
+        <v>261</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>220</v>
+      </c>
+      <c r="O40" t="s">
+        <v>34</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>262</v>
+      </c>
+      <c r="X40" t="s">
+        <v>263</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>42557</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>25</v>
+      </c>
+      <c r="F41" t="s">
+        <v>265</v>
+      </c>
+      <c r="G41" t="s">
+        <v>27</v>
+      </c>
+      <c r="H41" t="s">
+        <v>28</v>
+      </c>
+      <c r="I41" t="s">
+        <v>266</v>
+      </c>
+      <c r="J41" t="s">
+        <v>267</v>
+      </c>
+      <c r="K41" t="s">
+        <v>268</v>
+      </c>
+      <c r="L41" t="s">
+        <v>269</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>270</v>
+      </c>
+      <c r="O41" t="s">
+        <v>34</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>262</v>
+      </c>
+      <c r="X41" t="s">
+        <v>263</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>42557</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F42" t="s">
+        <v>272</v>
+      </c>
+      <c r="G42" t="s">
+        <v>27</v>
+      </c>
+      <c r="H42" t="s">
+        <v>28</v>
+      </c>
+      <c r="I42" t="s">
+        <v>273</v>
+      </c>
+      <c r="J42" t="s">
+        <v>274</v>
+      </c>
+      <c r="K42" t="s">
+        <v>275</v>
+      </c>
+      <c r="L42" t="s">
+        <v>276</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>220</v>
+      </c>
+      <c r="O42" t="s">
+        <v>34</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>262</v>
+      </c>
+      <c r="X42" t="s">
+        <v>263</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42557</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>25</v>
+      </c>
+      <c r="F43" t="s">
+        <v>278</v>
+      </c>
+      <c r="G43" t="s">
+        <v>27</v>
+      </c>
+      <c r="H43" t="s">
+        <v>28</v>
+      </c>
+      <c r="I43" t="s">
+        <v>279</v>
+      </c>
+      <c r="J43" t="s">
+        <v>280</v>
+      </c>
+      <c r="K43" t="s">
+        <v>281</v>
+      </c>
+      <c r="L43" t="s">
+        <v>282</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>220</v>
+      </c>
+      <c r="O43" t="s">
+        <v>73</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>4</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>262</v>
+      </c>
+      <c r="X43" t="s">
+        <v>263</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>42557</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>25</v>
+      </c>
+      <c r="F44" t="s">
+        <v>284</v>
+      </c>
+      <c r="G44" t="s">
+        <v>27</v>
+      </c>
+      <c r="H44" t="s">
+        <v>28</v>
+      </c>
+      <c r="I44" t="s">
+        <v>285</v>
+      </c>
+      <c r="J44" t="s">
+        <v>286</v>
+      </c>
+      <c r="K44" t="s">
+        <v>287</v>
+      </c>
+      <c r="L44" t="s">
+        <v>288</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>220</v>
+      </c>
+      <c r="O44" t="s">
+        <v>34</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="n">
+        <v>4</v>
+      </c>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>262</v>
+      </c>
+      <c r="X44" t="s">
+        <v>263</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>42557</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>25</v>
+      </c>
+      <c r="F45" t="s">
+        <v>290</v>
+      </c>
+      <c r="G45" t="s">
+        <v>27</v>
+      </c>
+      <c r="H45" t="s">
+        <v>28</v>
+      </c>
+      <c r="I45" t="s">
+        <v>291</v>
+      </c>
+      <c r="J45" t="s">
+        <v>292</v>
+      </c>
+      <c r="K45" t="s">
+        <v>293</v>
+      </c>
+      <c r="L45" t="s">
+        <v>294</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>190</v>
+      </c>
+      <c r="O45" t="s">
+        <v>50</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="n">
+        <v>4</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>262</v>
+      </c>
+      <c r="X45" t="s">
+        <v>263</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>42557</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>25</v>
+      </c>
+      <c r="F46" t="s">
+        <v>296</v>
+      </c>
+      <c r="G46" t="s">
+        <v>27</v>
+      </c>
+      <c r="H46" t="s">
+        <v>28</v>
+      </c>
+      <c r="I46" t="s">
+        <v>297</v>
+      </c>
+      <c r="J46" t="s">
+        <v>298</v>
+      </c>
+      <c r="K46" t="s">
+        <v>299</v>
+      </c>
+      <c r="L46" t="s">
+        <v>300</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>220</v>
+      </c>
+      <c r="O46" t="s">
+        <v>73</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>262</v>
+      </c>
+      <c r="X46" t="s">
+        <v>263</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>42557</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>25</v>
+      </c>
+      <c r="F47" t="s">
+        <v>302</v>
+      </c>
+      <c r="G47" t="s">
+        <v>27</v>
+      </c>
+      <c r="H47" t="s">
+        <v>28</v>
+      </c>
+      <c r="I47" t="s">
+        <v>303</v>
+      </c>
+      <c r="J47" t="s">
+        <v>304</v>
+      </c>
+      <c r="K47" t="s">
+        <v>305</v>
+      </c>
+      <c r="L47" t="s">
+        <v>306</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>220</v>
+      </c>
+      <c r="O47" t="s">
+        <v>73</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="s"/>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>262</v>
+      </c>
+      <c r="X47" t="s">
+        <v>263</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>42557</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>25</v>
+      </c>
+      <c r="F48" t="s">
+        <v>308</v>
+      </c>
+      <c r="G48" t="s">
+        <v>27</v>
+      </c>
+      <c r="H48" t="s">
+        <v>28</v>
+      </c>
+      <c r="I48" t="s">
+        <v>309</v>
+      </c>
+      <c r="J48" t="s">
+        <v>304</v>
+      </c>
+      <c r="K48" t="s">
+        <v>310</v>
+      </c>
+      <c r="L48" t="s">
+        <v>311</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>190</v>
+      </c>
+      <c r="O48" t="s">
+        <v>50</v>
+      </c>
+      <c r="P48" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="n">
+        <v>4</v>
+      </c>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>4</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>262</v>
+      </c>
+      <c r="X48" t="s">
+        <v>263</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>42557</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>25</v>
+      </c>
+      <c r="F49" t="s">
+        <v>313</v>
+      </c>
+      <c r="G49" t="s">
+        <v>27</v>
+      </c>
+      <c r="H49" t="s">
+        <v>28</v>
+      </c>
+      <c r="I49" t="s">
+        <v>314</v>
+      </c>
+      <c r="J49" t="s">
+        <v>315</v>
+      </c>
+      <c r="K49" t="s">
+        <v>316</v>
+      </c>
+      <c r="L49" t="s">
+        <v>317</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>190</v>
+      </c>
+      <c r="O49" t="s">
+        <v>50</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="s"/>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>262</v>
+      </c>
+      <c r="X49" t="s">
+        <v>263</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>42557</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>25</v>
+      </c>
+      <c r="F50" t="s">
+        <v>319</v>
+      </c>
+      <c r="G50" t="s">
+        <v>27</v>
+      </c>
+      <c r="H50" t="s">
+        <v>28</v>
+      </c>
+      <c r="I50" t="s">
+        <v>320</v>
+      </c>
+      <c r="J50" t="s">
+        <v>321</v>
+      </c>
+      <c r="K50" t="s">
+        <v>322</v>
+      </c>
+      <c r="L50" t="s">
+        <v>323</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>190</v>
+      </c>
+      <c r="O50" t="s">
+        <v>34</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="s"/>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>42557</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>25</v>
+      </c>
+      <c r="F51" t="s">
+        <v>324</v>
+      </c>
+      <c r="G51" t="s">
+        <v>27</v>
+      </c>
+      <c r="H51" t="s">
+        <v>28</v>
+      </c>
+      <c r="I51" t="s">
+        <v>325</v>
+      </c>
+      <c r="J51" t="s">
+        <v>321</v>
+      </c>
+      <c r="K51" t="s">
+        <v>326</v>
+      </c>
+      <c r="L51" t="s">
+        <v>327</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>190</v>
+      </c>
+      <c r="O51" t="s">
+        <v>50</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="s"/>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>262</v>
+      </c>
+      <c r="X51" t="s">
+        <v>263</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>42557</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>25</v>
+      </c>
+      <c r="F52" t="s">
+        <v>329</v>
+      </c>
+      <c r="G52" t="s">
+        <v>27</v>
+      </c>
+      <c r="H52" t="s">
+        <v>28</v>
+      </c>
+      <c r="I52" t="s">
+        <v>330</v>
+      </c>
+      <c r="J52" t="s">
+        <v>331</v>
+      </c>
+      <c r="K52" t="s">
+        <v>332</v>
+      </c>
+      <c r="L52" t="s">
+        <v>333</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>190</v>
+      </c>
+      <c r="O52" t="s">
+        <v>50</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>42557</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>25</v>
+      </c>
+      <c r="F53" t="s">
+        <v>334</v>
+      </c>
+      <c r="G53" t="s">
+        <v>27</v>
+      </c>
+      <c r="H53" t="s">
+        <v>28</v>
+      </c>
+      <c r="I53" t="s">
+        <v>335</v>
+      </c>
+      <c r="J53" t="s">
+        <v>336</v>
+      </c>
+      <c r="K53" t="s">
+        <v>337</v>
+      </c>
+      <c r="L53" t="s">
+        <v>338</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>190</v>
+      </c>
+      <c r="O53" t="s">
+        <v>34</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>42557</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>25</v>
+      </c>
+      <c r="F54" t="s">
+        <v>339</v>
+      </c>
+      <c r="G54" t="s">
+        <v>27</v>
+      </c>
+      <c r="H54" t="s">
+        <v>28</v>
+      </c>
+      <c r="I54" t="s">
+        <v>340</v>
+      </c>
+      <c r="J54" t="s">
+        <v>341</v>
+      </c>
+      <c r="K54" t="s">
+        <v>342</v>
+      </c>
+      <c r="L54" t="s">
+        <v>343</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>190</v>
+      </c>
+      <c r="O54" t="s">
+        <v>73</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>42557</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>25</v>
+      </c>
+      <c r="F55" t="s">
+        <v>345</v>
+      </c>
+      <c r="G55" t="s">
+        <v>27</v>
+      </c>
+      <c r="H55" t="s">
+        <v>28</v>
+      </c>
+      <c r="I55" t="s">
+        <v>346</v>
+      </c>
+      <c r="J55" t="s">
+        <v>347</v>
+      </c>
+      <c r="K55" t="s">
+        <v>348</v>
+      </c>
+      <c r="L55" t="s">
+        <v>349</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>190</v>
+      </c>
+      <c r="O55" t="s">
+        <v>34</v>
+      </c>
+      <c r="P55" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>42557</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>25</v>
+      </c>
+      <c r="F56" t="s">
+        <v>350</v>
+      </c>
+      <c r="G56" t="s">
+        <v>27</v>
+      </c>
+      <c r="H56" t="s">
+        <v>28</v>
+      </c>
+      <c r="I56" t="s">
+        <v>351</v>
+      </c>
+      <c r="J56" t="s">
+        <v>352</v>
+      </c>
+      <c r="K56" t="s">
+        <v>353</v>
+      </c>
+      <c r="L56" t="s">
+        <v>354</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>190</v>
+      </c>
+      <c r="O56" t="s">
+        <v>80</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="s"/>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>42557</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>25</v>
+      </c>
+      <c r="F57" t="s">
+        <v>355</v>
+      </c>
+      <c r="G57" t="s">
+        <v>27</v>
+      </c>
+      <c r="H57" t="s">
+        <v>28</v>
+      </c>
+      <c r="I57" t="s">
+        <v>356</v>
+      </c>
+      <c r="J57" t="s">
+        <v>357</v>
+      </c>
+      <c r="K57" t="s">
+        <v>358</v>
+      </c>
+      <c r="L57" t="s">
+        <v>359</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>270</v>
+      </c>
+      <c r="O57" t="s">
+        <v>80</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="s"/>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>42557</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>25</v>
+      </c>
+      <c r="F58" t="s">
+        <v>360</v>
+      </c>
+      <c r="G58" t="s">
+        <v>27</v>
+      </c>
+      <c r="H58" t="s">
+        <v>28</v>
+      </c>
+      <c r="I58" t="s">
+        <v>361</v>
+      </c>
+      <c r="J58" t="s">
+        <v>357</v>
+      </c>
+      <c r="K58" t="s">
+        <v>362</v>
+      </c>
+      <c r="L58" t="s">
+        <v>363</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>270</v>
+      </c>
+      <c r="O58" t="s">
+        <v>50</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="s"/>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>42557</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>25</v>
+      </c>
+      <c r="F59" t="s">
+        <v>365</v>
+      </c>
+      <c r="G59" t="s">
+        <v>27</v>
+      </c>
+      <c r="H59" t="s">
+        <v>28</v>
+      </c>
+      <c r="I59" t="s">
+        <v>366</v>
+      </c>
+      <c r="J59" t="s">
+        <v>357</v>
+      </c>
+      <c r="K59" t="s">
+        <v>367</v>
+      </c>
+      <c r="L59" t="s">
+        <v>368</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>190</v>
+      </c>
+      <c r="O59" t="s">
+        <v>34</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>42557</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>25</v>
+      </c>
+      <c r="F60" t="s">
+        <v>369</v>
+      </c>
+      <c r="G60" t="s">
+        <v>27</v>
+      </c>
+      <c r="H60" t="s">
+        <v>28</v>
+      </c>
+      <c r="I60" t="s">
+        <v>370</v>
+      </c>
+      <c r="J60" t="s">
+        <v>371</v>
+      </c>
+      <c r="K60" t="s">
+        <v>372</v>
+      </c>
+      <c r="L60" t="s">
+        <v>373</v>
+      </c>
+      <c r="M60" t="n">
+        <v>1</v>
+      </c>
+      <c r="N60" t="s">
+        <v>190</v>
+      </c>
+      <c r="O60" t="s">
+        <v>34</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
+      <c r="S60" t="s"/>
+      <c r="T60" t="s"/>
+      <c r="U60" t="s"/>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>374</v>
+      </c>
+      <c r="X60" t="s">
+        <v>375</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>376</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
@@ -583,31 +5212,31 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>377</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>378</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>379</v>
       </c>
       <c r="E1" t="s">
-        <v>28</v>
+        <v>380</v>
       </c>
       <c r="F1" t="s">
-        <v>29</v>
+        <v>381</v>
       </c>
       <c r="G1" t="s">
-        <v>30</v>
+        <v>382</v>
       </c>
       <c r="H1" t="s">
-        <v>31</v>
+        <v>383</v>
       </c>
       <c r="I1" t="s">
-        <v>32</v>
+        <v>384</v>
       </c>
       <c r="J1" t="s">
-        <v>33</v>
+        <v>385</v>
       </c>
     </row>
     <row r="2">
@@ -615,31 +5244,31 @@
         <v>42557</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>386</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>387</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>388</v>
       </c>
       <c r="E2" t="n">
         <v>70130</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>389</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>390</v>
       </c>
       <c r="H2" t="s">
-        <v>39</v>
+        <v>391</v>
       </c>
       <c r="I2" t="s">
-        <v>40</v>
+        <v>392</v>
       </c>
       <c r="J2" t="s">
-        <v>41</v>
+        <v>393</v>
       </c>
     </row>
   </sheetData>
